--- a/opm_hero_property/heroes/103.xlsx
+++ b/opm_hero_property/heroes/103.xlsx
@@ -996,87 +996,87 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>21,43288;31,8189;41,2758</t>
+          <t>21,34630;31,6551;41,2206</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>21,43288;31,8189;41,2758</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>21,21644;31,4094;41,1379</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>21,5241;31,977;41,388</t>
+          <t>21,4193;31,781;41,311</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>21,5241;31,977;41,388</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>21,2620;31,488;41,194</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>43288.63</v>
+        <v>34630.904</v>
       </c>
       <c r="O2" t="n">
-        <v>8189.090000000001</v>
+        <v>6551.272</v>
       </c>
       <c r="P2" t="n">
-        <v>2758.28</v>
+        <v>2206.624</v>
       </c>
       <c r="Q2" t="n">
-        <v>43288.63</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>8189.090000000001</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>2758.28</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>21644.315</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>4094.545000000001</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1379.14</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>5241.775000000001</v>
+        <v>4193.42</v>
       </c>
       <c r="X2" t="n">
-        <v>977.2700000000001</v>
+        <v>781.816</v>
       </c>
       <c r="Y2" t="n">
-        <v>388.92</v>
+        <v>311.136</v>
       </c>
       <c r="Z2" t="n">
-        <v>5241.775000000001</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>977.2700000000001</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>388.92</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>2620.8875</v>
+        <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>488.635</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>194.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1103,87 +1103,87 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>21,43292;31,8190;41,2758</t>
+          <t>21,34634;31,6552;41,2206</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>21,43292;31,8190;41,2758</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>21,21646;31,4095;41,1379</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>21,5246;31,978;41,389</t>
+          <t>21,4196;31,782;41,311</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>21,5246;31,978;41,389</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>21,2623;31,489;41,194</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>43292.935</v>
+        <v>34634.348</v>
       </c>
       <c r="O3" t="n">
-        <v>8190.245000000001</v>
+        <v>6552.196</v>
       </c>
       <c r="P3" t="n">
-        <v>2758.735</v>
+        <v>2206.988</v>
       </c>
       <c r="Q3" t="n">
-        <v>43292.935</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>8190.245000000001</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>2758.735</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>21646.4675</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>4095.1225</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>1379.3675</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>5246.080000000001</v>
+        <v>4196.864</v>
       </c>
       <c r="X3" t="n">
-        <v>978.4250000000001</v>
+        <v>782.74</v>
       </c>
       <c r="Y3" t="n">
-        <v>389.3750000000001</v>
+        <v>311.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>5246.080000000001</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>978.4250000000001</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>389.3750000000001</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>2623.04</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>489.2125</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>194.6875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1210,87 +1210,87 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>21,46252;31,8971;41,3191</t>
+          <t>21,37001;31,7177;41,2553</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>21,46252;31,8971;41,3191</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>21,23126;31,4485;41,1595</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>21,5564;31,1062;41,437</t>
+          <t>21,4451;31,850;41,349</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>21,5564;31,1062;41,437</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>21,2782;31,531;41,218</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>46252.17193800001</v>
+        <v>37001.7375504</v>
       </c>
       <c r="O4" t="n">
-        <v>8971.842008500002</v>
+        <v>7177.4736068</v>
       </c>
       <c r="P4" t="n">
-        <v>3191.859657</v>
+        <v>2553.4877256</v>
       </c>
       <c r="Q4" t="n">
-        <v>46252.17193800001</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>8971.842008500002</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>3191.859657</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>23126.085969</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>4485.921004250001</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>1595.9298285</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>5564.865201</v>
+        <v>4451.8921608</v>
       </c>
       <c r="X4" t="n">
-        <v>1062.6390145</v>
+        <v>850.1112115999999</v>
       </c>
       <c r="Y4" t="n">
-        <v>437.241721</v>
+        <v>349.7933768</v>
       </c>
       <c r="Z4" t="n">
-        <v>5564.865201</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>1062.6390145</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>437.241721</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>2782.4326005</v>
+        <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>531.31950725</v>
+        <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>218.6208605</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1317,87 +1317,87 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>21,49607;31,9858;41,3682</t>
+          <t>21,39685;31,7886;41,2946</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>21,49607;31,9858;41,3682</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>21,24803;31,4929;41,1841</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>21,5925;31,1158;41,491</t>
+          <t>21,4740;31,926;41,393</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>21,5925;31,1158;41,491</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>21,2962;31,579;41,245</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>49607.351787</v>
+        <v>39685.8814296</v>
       </c>
       <c r="O5" t="n">
-        <v>9858.358832000002</v>
+        <v>7886.687065600001</v>
       </c>
       <c r="P5" t="n">
-        <v>3682.992915000001</v>
+        <v>2946.394332</v>
       </c>
       <c r="Q5" t="n">
-        <v>49607.351787</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>9858.358832000002</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>3682.992915000001</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>24803.6758935</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>4929.179416000001</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>1841.4964575</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>5925.757561500001</v>
+        <v>4740.6060492</v>
       </c>
       <c r="X5" t="n">
-        <v>1158.019184</v>
+        <v>926.4153472</v>
       </c>
       <c r="Y5" t="n">
-        <v>491.464995</v>
+        <v>393.171996</v>
       </c>
       <c r="Z5" t="n">
-        <v>5925.757561500001</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>1158.019184</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>491.464995</v>
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>2962.87878075</v>
+        <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>579.009592</v>
+        <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>245.7324975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1424,87 +1424,87 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>21,53554;31,10899;41,4260</t>
+          <t>21,42843;31,8719;41,3408</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>21,53554;31,10899;41,4260</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>21,26777;31,5449;41,2130</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>21,6350;31,1269;41,555</t>
+          <t>21,5080;31,1015;41,444</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>21,6350;31,1269;41,555</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>21,3175;31,634;41,277</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>53554.894589</v>
+        <v>42843.9156712</v>
       </c>
       <c r="O6" t="n">
-        <v>10899.9391515</v>
+        <v>8719.9513212</v>
       </c>
       <c r="P6" t="n">
-        <v>4260.375791</v>
+        <v>3408.3006328</v>
       </c>
       <c r="Q6" t="n">
-        <v>53554.894589</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>10899.9391515</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>4260.375791</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>26777.4472945</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>5449.96957575</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>2130.1878955</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>6350.161590500001</v>
+        <v>5080.1292724</v>
       </c>
       <c r="X6" t="n">
-        <v>1269.9959055</v>
+        <v>1015.9967244</v>
       </c>
       <c r="Y6" t="n">
-        <v>555.1706230000001</v>
+        <v>444.1364984</v>
       </c>
       <c r="Z6" t="n">
-        <v>6350.161590500001</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>1269.9959055</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>555.1706230000001</v>
+        <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>3175.08079525</v>
+        <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>634.9979527500001</v>
+        <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>277.5853115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1531,87 +1531,87 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>21,59948;31,12099;41,5467</t>
+          <t>21,47958;31,9679;41,4373</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>21,59948;31,12099;41,5467</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>21,29974;31,6049;41,2733</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>21,7044;31,1400;41,689</t>
+          <t>21,5635;31,1120;41,551</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>21,7044;31,1400;41,689</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>21,3522;31,700;41,344</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>59948.55443500001</v>
+        <v>47958.843548</v>
       </c>
       <c r="O7" t="n">
-        <v>12099.982118</v>
+        <v>9679.9856944</v>
       </c>
       <c r="P7" t="n">
-        <v>5467.015592500001</v>
+        <v>4373.612474</v>
       </c>
       <c r="Q7" t="n">
-        <v>59948.55443500001</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>12099.982118</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>5467.015592500001</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>29974.2772175</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>6049.991059000001</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>2733.50779625</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>7044.402557500001</v>
+        <v>5635.522046</v>
       </c>
       <c r="X7" t="n">
-        <v>1400.525966</v>
+        <v>1120.4207728</v>
       </c>
       <c r="Y7" t="n">
-        <v>689.2011525000001</v>
+        <v>551.3609220000001</v>
       </c>
       <c r="Z7" t="n">
-        <v>7044.402557500001</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>1400.525966</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>689.2011525000001</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>3522.20127875</v>
+        <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>700.2629830000001</v>
+        <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>344.6005762500001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1638,87 +1638,87 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>21,68216;31,13456;41,7135</t>
+          <t>21,54572;31,10764;41,5708</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>21,68216;31,13456;41,7135</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>21,34108;31,6728;41,3567</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>21,7938;31,1547;41,874</t>
+          <t>21,6350;31,1237;41,699</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>21,7938;31,1547;41,874</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>21,3969;31,773;41,437</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>68216.18316100001</v>
+        <v>54572.9465288</v>
       </c>
       <c r="O8" t="n">
-        <v>13456.0727315</v>
+        <v>10764.8581852</v>
       </c>
       <c r="P8" t="n">
-        <v>7135.609351500001</v>
+        <v>5708.487481200001</v>
       </c>
       <c r="Q8" t="n">
-        <v>68216.18316100001</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>13456.0727315</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>7135.609351500001</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>34108.0915805</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>6728.036365750001</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>3567.804675750001</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>7938.550784500001</v>
+        <v>6350.840627600001</v>
       </c>
       <c r="X8" t="n">
-        <v>1547.1943655</v>
+        <v>1237.7554924</v>
       </c>
       <c r="Y8" t="n">
-        <v>874.1016795</v>
+        <v>699.2813436</v>
       </c>
       <c r="Z8" t="n">
-        <v>7938.550784500001</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>1547.1943655</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>874.1016795</v>
+        <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>3969.275392250001</v>
+        <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>773.5971827500001</v>
+        <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>437.05083975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1745,87 +1745,87 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>21,78846;31,15019;41,9381</t>
+          <t>21,63077;31,12015;41,7505</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>21,78846;31,15019;41,9381</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>21,39423;31,7509;41,4690</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>21,9083;31,1715;41,1122</t>
+          <t>21,7267;31,1372;41,897</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>21,9083;31,1715;41,1122</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>21,4541;31,857;41,561</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>78846.62587200002</v>
+        <v>63077.3006976</v>
       </c>
       <c r="O9" t="n">
-        <v>15019.863824</v>
+        <v>12015.8910592</v>
       </c>
       <c r="P9" t="n">
-        <v>9381.270986500002</v>
+        <v>7505.0167892</v>
       </c>
       <c r="Q9" t="n">
-        <v>78846.62587200002</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>15019.863824</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>9381.270986500002</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>39423.31293600001</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>7509.931912</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>4690.635493250001</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>9083.912544000001</v>
+        <v>7267.1300352</v>
       </c>
       <c r="X9" t="n">
-        <v>1715.498288</v>
+        <v>1372.3986304</v>
       </c>
       <c r="Y9" t="n">
-        <v>1122.3928345</v>
+        <v>897.9142676</v>
       </c>
       <c r="Z9" t="n">
-        <v>9083.912544000001</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>1715.498288</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>1122.3928345</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>4541.956272</v>
+        <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>857.7491440000001</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>561.1964172500001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1852,87 +1852,87 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>21,86816;31,15853;41,11251</t>
+          <t>21,69453;31,12682;41,9001</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>21,86816;31,15853;41,11251</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>21,43408;31,7926;41,5625</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>21,9942;31,1805;41,1329</t>
+          <t>21,7954;31,1444;41,1063</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>21,9942;31,1805;41,1329</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>21,4971;31,902;41,664</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>86816.299535</v>
+        <v>69453.039628</v>
       </c>
       <c r="O10" t="n">
-        <v>15853.0086645</v>
+        <v>12682.4069316</v>
       </c>
       <c r="P10" t="n">
-        <v>11251.585471</v>
+        <v>9001.268376800001</v>
       </c>
       <c r="Q10" t="n">
-        <v>86816.299535</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>15853.0086645</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>11251.585471</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>43408.1497675</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>7926.504332250001</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>5625.792735500001</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>9942.629007500002</v>
+        <v>7954.103206000001</v>
       </c>
       <c r="X10" t="n">
-        <v>1805.1044865</v>
+        <v>1444.0835892</v>
       </c>
       <c r="Y10" t="n">
-        <v>1329.179663</v>
+        <v>1063.3437304</v>
       </c>
       <c r="Z10" t="n">
-        <v>9942.629007500002</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>1805.1044865</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>1329.179663</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>4971.314503750001</v>
+        <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>902.5522432500001</v>
+        <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>664.5898315000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1959,87 +1959,87 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>21,96532;31,16843;41,13547</t>
+          <t>21,77226;31,13474;41,10838</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>21,96532;31,16843;41,13547</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>21,48266;31,8421;41,6773</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>21,10988;31,1911;41,1582</t>
+          <t>21,8790;31,1529;41,1266</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>21,10988;31,1911;41,1582</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>21,5494;31,955;41,791</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>96532.627268</v>
+        <v>77226.1018144</v>
       </c>
       <c r="O11" t="n">
-        <v>16843.5332275</v>
+        <v>13474.826582</v>
       </c>
       <c r="P11" t="n">
-        <v>13547.560061</v>
+        <v>10838.0480488</v>
       </c>
       <c r="Q11" t="n">
-        <v>96532.627268</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>16843.5332275</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>13547.560061</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>48266.313634</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>8421.76661375</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>6773.780030500001</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>10988.078486</v>
+        <v>8790.462788800001</v>
       </c>
       <c r="X11" t="n">
-        <v>1911.4599175</v>
+        <v>1529.167934</v>
       </c>
       <c r="Y11" t="n">
-        <v>1582.765933</v>
+        <v>1266.2127464</v>
       </c>
       <c r="Z11" t="n">
-        <v>10988.078486</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>1911.4599175</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>1582.765933</v>
+        <v>0</v>
       </c>
       <c r="AC11" t="n">
-        <v>5494.039243000001</v>
+        <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>955.7299587500002</v>
+        <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>791.3829665000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2066,87 +2066,87 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>21,114436;31,18927;41,17633</t>
+          <t>21,91548;31,15141;41,14107</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>21,114436;31,18927;41,17633</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>21,57218;31,9463;41,8816</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>21,12911;31,2135;41,2033</t>
+          <t>21,10329;31,1708;41,1626</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>21,12911;31,2135;41,2033</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>21,6455;31,1067;41,1016</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>114436.115668</v>
+        <v>91548.8925344</v>
       </c>
       <c r="O12" t="n">
-        <v>18927.080942</v>
+        <v>15141.6647536</v>
       </c>
       <c r="P12" t="n">
-        <v>17633.7829745</v>
+        <v>14107.0263796</v>
       </c>
       <c r="Q12" t="n">
-        <v>114436.115668</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>18927.080942</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>17633.7829745</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>57218.05783400001</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>9463.540471000002</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>8816.891487250001</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>12911.887786</v>
+        <v>10329.5102288</v>
       </c>
       <c r="X12" t="n">
-        <v>2135.079254</v>
+        <v>1708.0634032</v>
       </c>
       <c r="Y12" t="n">
-        <v>2033.6797985</v>
+        <v>1626.9438388</v>
       </c>
       <c r="Z12" t="n">
-        <v>12911.887786</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>2135.079254</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>2033.6797985</v>
+        <v>0</v>
       </c>
       <c r="AC12" t="n">
-        <v>6455.943893000001</v>
+        <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>1067.539627</v>
+        <v>0</v>
       </c>
       <c r="AE12" t="n">
-        <v>1016.83989925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2173,87 +2173,87 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>21,117204;31,19345;41,18213</t>
+          <t>21,93763;31,15476;41,14570</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>21,117204;31,19345;41,18213</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>21,58602;31,9672;41,9106</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>21,13218;31,2181;41,2098</t>
+          <t>21,10575;31,1745;41,1679</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>21,13218;31,2181;41,2098</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>21,6609;31,1090;41,1049</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>117204.649737</v>
+        <v>93763.7197896</v>
       </c>
       <c r="O13" t="n">
-        <v>19345.6319</v>
+        <v>15476.50552</v>
       </c>
       <c r="P13" t="n">
-        <v>18213.006945</v>
+        <v>14570.405556</v>
       </c>
       <c r="Q13" t="n">
-        <v>117204.649737</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>19345.6319</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18213.006945</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>58602.32486850001</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>9672.81595</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>9106.5034725</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>13218.7903365</v>
+        <v>10575.0322692</v>
       </c>
       <c r="X13" t="n">
-        <v>2181.5003</v>
+        <v>1745.20024</v>
       </c>
       <c r="Y13" t="n">
-        <v>2098.989585</v>
+        <v>1679.191668</v>
       </c>
       <c r="Z13" t="n">
-        <v>13218.7903365</v>
+        <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>2181.5003</v>
+        <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>2098.989585</v>
+        <v>0</v>
       </c>
       <c r="AC13" t="n">
-        <v>6609.39516825</v>
+        <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>1090.75015</v>
+        <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>1049.4947925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2280,87 +2280,87 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>21,119977;31,19764;41,18791</t>
+          <t>21,95981;31,15811;41,15033</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>21,119977;31,19764;41,18791</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>21,59988;31,9882;41,9395</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>21,13526;31,2227;41,2164</t>
+          <t>21,10820;31,1782;41,1731</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>21,13526;31,2227;41,2164</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>21,6763;31,1113;41,1082</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>119977.476633</v>
+        <v>95981.9813064</v>
       </c>
       <c r="O14" t="n">
-        <v>19764.182858</v>
+        <v>15811.3462864</v>
       </c>
       <c r="P14" t="n">
-        <v>18791.96482100001</v>
+        <v>15033.5718568</v>
       </c>
       <c r="Q14" t="n">
-        <v>119977.476633</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>19764.182858</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>18791.96482100001</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>59988.73831650001</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>9882.091429000002</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>9395.982410500003</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>13526.1810285</v>
+        <v>10820.9448228</v>
       </c>
       <c r="X14" t="n">
-        <v>2227.921346000001</v>
+        <v>1782.3370768</v>
       </c>
       <c r="Y14" t="n">
-        <v>2164.270213</v>
+        <v>1731.4161704</v>
       </c>
       <c r="Z14" t="n">
-        <v>13526.1810285</v>
+        <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>2227.921346000001</v>
+        <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>2164.270213</v>
+        <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>6763.090514250001</v>
+        <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>1113.960673</v>
+        <v>0</v>
       </c>
       <c r="AE14" t="n">
-        <v>1082.1351065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2387,87 +2387,87 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>21,122750;31,20182;41,19371</t>
+          <t>21,98200;31,16146;41,15496</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>21,122750;31,20182;41,19371</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>21,61375;31,10091;41,9685</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>21,13833;31,2274;41,2229</t>
+          <t>21,11066;31,1819;41,1783</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>21,13833;31,2274;41,2229</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>21,6916;31,1137;41,1114</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>122750.268529</v>
+        <v>98200.2148232</v>
       </c>
       <c r="O15" t="n">
-        <v>20182.733816</v>
+        <v>16146.1870528</v>
       </c>
       <c r="P15" t="n">
-        <v>19371.1887915</v>
+        <v>15496.9510332</v>
       </c>
       <c r="Q15" t="n">
-        <v>122750.268529</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>20182.733816</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>19371.1887915</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>61375.1342645</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>10091.366908</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>9685.59439575</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>13833.5367205</v>
+        <v>11066.8293764</v>
       </c>
       <c r="X15" t="n">
-        <v>2274.342392</v>
+        <v>1819.4739136</v>
       </c>
       <c r="Y15" t="n">
-        <v>2229.5799995</v>
+        <v>1783.6639996</v>
       </c>
       <c r="Z15" t="n">
-        <v>13833.5367205</v>
+        <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>2274.342392</v>
+        <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>2229.5799995</v>
+        <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>6916.76836025</v>
+        <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>1137.171196</v>
+        <v>0</v>
       </c>
       <c r="AE15" t="n">
-        <v>1114.78999975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2494,87 +2494,87 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>21,125523;31,20601;41,19950</t>
+          <t>21,100418;31,16481;41,15960</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>21,125523;31,20601;41,19950</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>21,62761;31,10300;41,9975</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>21,14140;31,2320;41,2294</t>
+          <t>21,11312;31,1856;41,1835</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>21,14140;31,2320;41,2294</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>21,7070;31,1160;41,1147</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>125523.095425</v>
+        <v>100418.47634</v>
       </c>
       <c r="O16" t="n">
-        <v>20601.284774</v>
+        <v>16481.0278192</v>
       </c>
       <c r="P16" t="n">
-        <v>19950.1116675</v>
+        <v>15960.089334</v>
       </c>
       <c r="Q16" t="n">
-        <v>125523.095425</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>20601.284774</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>19950.1116675</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>62761.5477125</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>10300.642387</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>9975.055833750001</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>14140.9274125</v>
+        <v>11312.74193</v>
       </c>
       <c r="X16" t="n">
-        <v>2320.763438</v>
+        <v>1856.6107504</v>
       </c>
       <c r="Y16" t="n">
-        <v>2294.8256275</v>
+        <v>1835.860502</v>
       </c>
       <c r="Z16" t="n">
-        <v>14140.9274125</v>
+        <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>2320.763438</v>
+        <v>0</v>
       </c>
       <c r="AB16" t="n">
-        <v>2294.8256275</v>
+        <v>0</v>
       </c>
       <c r="AC16" t="n">
-        <v>7070.463706250001</v>
+        <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>1160.381719</v>
+        <v>0</v>
       </c>
       <c r="AE16" t="n">
-        <v>1147.41281375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2601,87 +2601,87 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>21,128295;31,21019;41,20529</t>
+          <t>21,102636;31,16815;41,16423</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>21,128295;31,21019;41,20529</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>21,64147;31,10509;41,10264</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>21,14448;31,2367;41,2360</t>
+          <t>21,11558;31,1893;41,1888</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>21,14448;31,2367;41,2360</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>21,7224;31,1183;41,1180</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>128295.887321</v>
+        <v>102636.7098568</v>
       </c>
       <c r="O17" t="n">
-        <v>21019.835732</v>
+        <v>16815.8685856</v>
       </c>
       <c r="P17" t="n">
-        <v>20529.335638</v>
+        <v>16423.4685104</v>
       </c>
       <c r="Q17" t="n">
-        <v>128295.887321</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>21019.835732</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>20529.335638</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>64147.94366050001</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>10509.917866</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>10264.667819</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>14448.2831045</v>
+        <v>11558.6264836</v>
       </c>
       <c r="X17" t="n">
-        <v>2367.184484</v>
+        <v>1893.7475872</v>
       </c>
       <c r="Y17" t="n">
-        <v>2360.135414</v>
+        <v>1888.1083312</v>
       </c>
       <c r="Z17" t="n">
-        <v>14448.2831045</v>
+        <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>2367.184484</v>
+        <v>0</v>
       </c>
       <c r="AB17" t="n">
-        <v>2360.135414</v>
+        <v>0</v>
       </c>
       <c r="AC17" t="n">
-        <v>7224.141552250001</v>
+        <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>1183.592242</v>
+        <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>1180.067707</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5136,7 +5136,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>310</v>
+        <v>144</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -5154,7 +5154,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>155</v>
+        <v>72</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -5190,7 +5190,7 @@
         <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>271</v>
+        <v>126</v>
       </c>
       <c r="AE2" t="n">
         <v>0</v>
@@ -5208,7 +5208,7 @@
         <v>0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>131</v>
+        <v>61</v>
       </c>
       <c r="AK2" t="n">
         <v>0</v>
@@ -5220,12 +5220,12 @@
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>21,0;31,3548;41,0;22,0;32,310;42,0</t>
+          <t>21,0;31,3548;41,0;22,0;32,144;42,0</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>21,0;31,1774;41,0;22,0;32,155;42,0</t>
+          <t>21,0;31,1774;41,0;22,0;32,72;42,0</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
@@ -5235,12 +5235,12 @@
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>21,0;31,1721;41,0;22,0;32,271;42,0</t>
+          <t>21,0;31,1721;41,0;22,0;32,126;42,0</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>21,0;31,860;41,0;22,0;32,131;42,0</t>
+          <t>21,0;31,860;41,0;22,0;32,61;42,0</t>
         </is>
       </c>
     </row>
@@ -5279,7 +5279,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>620</v>
+        <v>288</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -5297,7 +5297,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>310</v>
+        <v>144</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -5333,7 +5333,7 @@
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>543</v>
+        <v>252</v>
       </c>
       <c r="AE3" t="n">
         <v>0</v>
@@ -5351,7 +5351,7 @@
         <v>0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>271</v>
+        <v>126</v>
       </c>
       <c r="AK3" t="n">
         <v>0</v>
@@ -5363,12 +5363,12 @@
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>21,0;31,6800;41,0;22,0;32,620;42,0</t>
+          <t>21,0;31,6800;41,0;22,0;32,288;42,0</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>21,0;31,3400;41,0;22,0;32,310;42,0</t>
+          <t>21,0;31,3400;41,0;22,0;32,144;42,0</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
@@ -5378,12 +5378,12 @@
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>21,0;31,1904;41,0;22,0;32,543;42,0</t>
+          <t>21,0;31,1904;41,0;22,0;32,252;42,0</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>21,0;31,952;41,0;22,0;32,271;42,0</t>
+          <t>21,0;31,952;41,0;22,0;32,126;42,0</t>
         </is>
       </c>
     </row>
@@ -5422,7 +5422,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>931</v>
+        <v>432</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -5440,7 +5440,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>465</v>
+        <v>216</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -5476,7 +5476,7 @@
         <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>814</v>
+        <v>378</v>
       </c>
       <c r="AE4" t="n">
         <v>0</v>
@@ -5494,7 +5494,7 @@
         <v>0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>403</v>
+        <v>187</v>
       </c>
       <c r="AK4" t="n">
         <v>0</v>
@@ -5506,12 +5506,12 @@
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>21,0;31,9680;41,0;22,0;32,931;42,0</t>
+          <t>21,0;31,9680;41,0;22,0;32,432;42,0</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>21,0;31,4840;41,0;22,0;32,465;42,0</t>
+          <t>21,0;31,4840;41,0;22,0;32,216;42,0</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
@@ -5521,12 +5521,12 @@
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>21,0;31,2220;41,0;22,0;32,814;42,0</t>
+          <t>21,0;31,2220;41,0;22,0;32,378;42,0</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>21,0;31,1110;41,0;22,0;32,403;42,0</t>
+          <t>21,0;31,1110;41,0;22,0;32,187;42,0</t>
         </is>
       </c>
     </row>
@@ -5565,7 +5565,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>1241</v>
+        <v>576</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -5583,7 +5583,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>620</v>
+        <v>288</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -5619,7 +5619,7 @@
         <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>1086</v>
+        <v>504</v>
       </c>
       <c r="AE5" t="n">
         <v>0</v>
@@ -5637,7 +5637,7 @@
         <v>0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>543</v>
+        <v>252</v>
       </c>
       <c r="AK5" t="n">
         <v>0</v>
@@ -5649,12 +5649,12 @@
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>21,0;31,12848;41,0;22,0;32,1241;42,0</t>
+          <t>21,0;31,12848;41,0;22,0;32,576;42,0</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>21,0;31,6424;41,0;22,0;32,620;42,0</t>
+          <t>21,0;31,6424;41,0;22,0;32,288;42,0</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
@@ -5664,12 +5664,12 @@
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>21,0;31,2376;41,0;22,0;32,1086;42,0</t>
+          <t>21,0;31,2376;41,0;22,0;32,504;42,0</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>21,0;31,1188;41,0;22,0;32,543;42,0</t>
+          <t>21,0;31,1188;41,0;22,0;32,252;42,0</t>
         </is>
       </c>
     </row>
@@ -5708,7 +5708,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>1552</v>
+        <v>720</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>776</v>
+        <v>360</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -5762,7 +5762,7 @@
         <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>1358</v>
+        <v>630</v>
       </c>
       <c r="AE6" t="n">
         <v>0</v>
@@ -5780,7 +5780,7 @@
         <v>0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>675</v>
+        <v>313</v>
       </c>
       <c r="AK6" t="n">
         <v>0</v>
@@ -5792,12 +5792,12 @@
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>21,0;31,15991;41,0;22,0;32,1552;42,0</t>
+          <t>21,0;31,15991;41,0;22,0;32,720;42,0</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>21,0;31,7995;41,0;22,0;32,776;42,0</t>
+          <t>21,0;31,7995;41,0;22,0;32,360;42,0</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
@@ -5807,12 +5807,12 @@
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>21,0;31,2542;41,0;22,0;32,1358;42,0</t>
+          <t>21,0;31,2542;41,0;22,0;32,630;42,0</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>21,0;31,1271;41,0;22,0;32,675;42,0</t>
+          <t>21,0;31,1271;41,0;22,0;32,313;42,0</t>
         </is>
       </c>
     </row>
@@ -5851,7 +5851,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>1862</v>
+        <v>864</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -5869,7 +5869,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>931</v>
+        <v>432</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -5905,7 +5905,7 @@
         <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>1629</v>
+        <v>756</v>
       </c>
       <c r="AE7" t="n">
         <v>0</v>
@@ -5923,7 +5923,7 @@
         <v>0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>814</v>
+        <v>378</v>
       </c>
       <c r="AK7" t="n">
         <v>0</v>
@@ -5935,12 +5935,12 @@
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>21,0;31,18613;41,0;22,0;32,1862;42,0</t>
+          <t>21,0;31,18613;41,0;22,0;32,864;42,0</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>21,0;31,9306;41,0;22,0;32,931;42,0</t>
+          <t>21,0;31,9306;41,0;22,0;32,432;42,0</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
@@ -5950,12 +5950,12 @@
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>21,0;31,2718;41,0;22,0;32,1629;42,0</t>
+          <t>21,0;31,2718;41,0;22,0;32,756;42,0</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>21,0;31,1359;41,0;22,0;32,814;42,0</t>
+          <t>21,0;31,1359;41,0;22,0;32,378;42,0</t>
         </is>
       </c>
     </row>
@@ -5994,7 +5994,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>2173</v>
+        <v>1008</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -6012,7 +6012,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>1086</v>
+        <v>504</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -6048,7 +6048,7 @@
         <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>1901</v>
+        <v>882</v>
       </c>
       <c r="AE8" t="n">
         <v>0</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>946</v>
+        <v>439</v>
       </c>
       <c r="AK8" t="n">
         <v>0</v>
@@ -6078,12 +6078,12 @@
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>21,0;31,21219;41,0;22,0;32,2173;42,0</t>
+          <t>21,0;31,21219;41,0;22,0;32,1008;42,0</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>21,0;31,10609;41,0;22,0;32,1086;42,0</t>
+          <t>21,0;31,10609;41,0;22,0;32,504;42,0</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
@@ -6093,12 +6093,12 @@
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>21,0;31,2905;41,0;22,0;32,1901;42,0</t>
+          <t>21,0;31,2905;41,0;22,0;32,882;42,0</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>21,0;31,1452;41,0;22,0;32,946;42,0</t>
+          <t>21,0;31,1452;41,0;22,0;32,439;42,0</t>
         </is>
       </c>
     </row>
@@ -6137,7 +6137,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>2444</v>
+        <v>1134</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -6155,7 +6155,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>1218</v>
+        <v>565</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -6191,7 +6191,7 @@
         <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>2173</v>
+        <v>1008</v>
       </c>
       <c r="AE9" t="n">
         <v>0</v>
@@ -6209,7 +6209,7 @@
         <v>0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1086</v>
+        <v>504</v>
       </c>
       <c r="AK9" t="n">
         <v>0</v>
@@ -6221,12 +6221,12 @@
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>21,0;31,24018;41,0;22,0;32,2444;42,0</t>
+          <t>21,0;31,24018;41,0;22,0;32,1134;42,0</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>21,0;31,12009;41,0;22,0;32,1218;42,0</t>
+          <t>21,0;31,12009;41,0;22,0;32,565;42,0</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
@@ -6236,12 +6236,12 @@
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>21,0;31,3222;41,0;22,0;32,2173;42,0</t>
+          <t>21,0;31,3222;41,0;22,0;32,1008;42,0</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>21,0;31,1611;41,0;22,0;32,1086;42,0</t>
+          <t>21,0;31,1611;41,0;22,0;32,504;42,0</t>
         </is>
       </c>
     </row>
@@ -6280,7 +6280,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>2600</v>
+        <v>1206</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -6298,7 +6298,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>1296</v>
+        <v>601</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -6334,7 +6334,7 @@
         <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>2444</v>
+        <v>1134</v>
       </c>
       <c r="AE10" t="n">
         <v>0</v>
@@ -6352,7 +6352,7 @@
         <v>0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1218</v>
+        <v>565</v>
       </c>
       <c r="AK10" t="n">
         <v>0</v>
@@ -6364,12 +6364,12 @@
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>21,0;31,27262;41,0;22,0;32,2600;42,0</t>
+          <t>21,0;31,27262;41,0;22,0;32,1206;42,0</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>21,0;31,13631;41,0;22,0;32,1296;42,0</t>
+          <t>21,0;31,13631;41,0;22,0;32,601;42,0</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
@@ -6379,12 +6379,12 @@
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>21,0;31,3489;41,0;22,0;32,2444;42,0</t>
+          <t>21,0;31,3489;41,0;22,0;32,1134;42,0</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>21,0;31,1744;41,0;22,0;32,1218;42,0</t>
+          <t>21,0;31,1744;41,0;22,0;32,565;42,0</t>
         </is>
       </c>
     </row>
@@ -6423,7 +6423,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>2716</v>
+        <v>1260</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -6441,7 +6441,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>1358</v>
+        <v>630</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -6477,7 +6477,7 @@
         <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>2716</v>
+        <v>1260</v>
       </c>
       <c r="AE11" t="n">
         <v>0</v>
@@ -6495,7 +6495,7 @@
         <v>0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1358</v>
+        <v>630</v>
       </c>
       <c r="AK11" t="n">
         <v>0</v>
@@ -6507,12 +6507,12 @@
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>21,0;31,30452;41,0;22,0;32,2716;42,0</t>
+          <t>21,0;31,30452;41,0;22,0;32,1260;42,0</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>21,0;31,15226;41,0;22,0;32,1358;42,0</t>
+          <t>21,0;31,15226;41,0;22,0;32,630;42,0</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
@@ -6522,12 +6522,12 @@
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>21,0;31,3761;41,0;22,0;32,2716;42,0</t>
+          <t>21,0;31,3761;41,0;22,0;32,1260;42,0</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>21,0;31,1880;41,0;22,0;32,1358;42,0</t>
+          <t>21,0;31,1880;41,0;22,0;32,630;42,0</t>
         </is>
       </c>
     </row>

--- a/opm_hero_property/heroes/103.xlsx
+++ b/opm_hero_property/heroes/103.xlsx
@@ -14,6 +14,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="talent" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mechanical" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="limiter" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="status" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -996,48 +997,48 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>21,34630;31,6551;41,2206</t>
+          <t>21,34630;31,9826;41,2632</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,0;31,29480;41,0</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,0;31,14740;41,0</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>21,4193;31,781;41,311</t>
+          <t>21,4193;31,1172;41,371</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,0;31,3518;41,0</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,0;31,1759;41,0</t>
         </is>
       </c>
       <c r="N2" t="n">
         <v>34630.904</v>
       </c>
       <c r="O2" t="n">
-        <v>6551.272</v>
+        <v>9826.908000000001</v>
       </c>
       <c r="P2" t="n">
-        <v>2206.624</v>
+        <v>2632.1872</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>29480.724</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -1046,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>14740.362</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -1055,16 +1056,16 @@
         <v>4193.42</v>
       </c>
       <c r="X2" t="n">
-        <v>781.816</v>
+        <v>1172.724</v>
       </c>
       <c r="Y2" t="n">
-        <v>311.136</v>
+        <v>371.1408</v>
       </c>
       <c r="Z2" t="n">
         <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>3518.172</v>
       </c>
       <c r="AB2" t="n">
         <v>0</v>
@@ -1073,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>1759.086</v>
       </c>
       <c r="AE2" t="n">
         <v>0</v>
@@ -1103,48 +1104,48 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>21,34634;31,6552;41,2206</t>
+          <t>21,34634;31,9828;41,2632</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,0;31,29484;41,0</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,0;31,14742;41,0</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>21,4196;31,782;41,311</t>
+          <t>21,4196;31,1174;41,371</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,0;31,3522;41,0</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,0;31,1761;41,0</t>
         </is>
       </c>
       <c r="N3" t="n">
         <v>34634.348</v>
       </c>
       <c r="O3" t="n">
-        <v>6552.196</v>
+        <v>9828.294</v>
       </c>
       <c r="P3" t="n">
-        <v>2206.988</v>
+        <v>2632.6214</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29484.882</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -1153,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>14742.441</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -1162,16 +1163,16 @@
         <v>4196.864</v>
       </c>
       <c r="X3" t="n">
-        <v>782.74</v>
+        <v>1174.11</v>
       </c>
       <c r="Y3" t="n">
-        <v>311.5</v>
+        <v>371.575</v>
       </c>
       <c r="Z3" t="n">
         <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>3522.33</v>
       </c>
       <c r="AB3" t="n">
         <v>0</v>
@@ -1180,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>1761.165</v>
       </c>
       <c r="AE3" t="n">
         <v>0</v>
@@ -1210,48 +1211,48 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>21,37001;31,7177;41,2553</t>
+          <t>21,37001;31,10766;41,3045</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,0;31,32298;41,0</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,0;31,16149;41,0</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>21,4451;31,850;41,349</t>
+          <t>21,4451;31,1275;41,417</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,0;31,3825;41,0</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,0;31,1912;41,0</t>
         </is>
       </c>
       <c r="N4" t="n">
         <v>37001.7375504</v>
       </c>
       <c r="O4" t="n">
-        <v>7177.4736068</v>
+        <v>10766.2104102</v>
       </c>
       <c r="P4" t="n">
-        <v>2553.4877256</v>
+        <v>3045.94607268</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>32298.6312306</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -1260,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>16149.3156153</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -1269,16 +1270,16 @@
         <v>4451.8921608</v>
       </c>
       <c r="X4" t="n">
-        <v>850.1112115999999</v>
+        <v>1275.1668174</v>
       </c>
       <c r="Y4" t="n">
-        <v>349.7933768</v>
+        <v>417.25352804</v>
       </c>
       <c r="Z4" t="n">
         <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>3825.5004522</v>
       </c>
       <c r="AB4" t="n">
         <v>0</v>
@@ -1287,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>1912.7502261</v>
       </c>
       <c r="AE4" t="n">
         <v>0</v>
@@ -1317,48 +1318,48 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>21,39685;31,7886;41,2946</t>
+          <t>21,39685;31,11830;41,3514</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,0;31,35490;41,0</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,0;31,17745;41,0</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>21,4740;31,926;41,393</t>
+          <t>21,4740;31,1389;41,468</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,0;31,4168;41,0</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,0;31,2084;41,0</t>
         </is>
       </c>
       <c r="N5" t="n">
         <v>39685.8814296</v>
       </c>
       <c r="O5" t="n">
-        <v>7886.687065600001</v>
+        <v>11830.0305984</v>
       </c>
       <c r="P5" t="n">
-        <v>2946.394332</v>
+        <v>3514.6275246</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>35490.0917952</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -1367,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>17745.0458976</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1376,16 +1377,16 @@
         <v>4740.6060492</v>
       </c>
       <c r="X5" t="n">
-        <v>926.4153472</v>
+        <v>1389.6230208</v>
       </c>
       <c r="Y5" t="n">
-        <v>393.171996</v>
+        <v>468.9980238</v>
       </c>
       <c r="Z5" t="n">
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>4168.8690624</v>
       </c>
       <c r="AB5" t="n">
         <v>0</v>
@@ -1394,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>2084.4345312</v>
       </c>
       <c r="AE5" t="n">
         <v>0</v>
@@ -1424,48 +1425,48 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>21,42843;31,8719;41,3408</t>
+          <t>21,42843;31,13079;41,4065</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,0;31,39239;41,0</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,0;31,19619;41,0</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>21,5080;31,1015;41,444</t>
+          <t>21,5080;31,1523;41,529</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,0;31,4571;41,0</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,0;31,2285;41,0</t>
         </is>
       </c>
       <c r="N6" t="n">
         <v>42843.9156712</v>
       </c>
       <c r="O6" t="n">
-        <v>8719.9513212</v>
+        <v>13079.9269818</v>
       </c>
       <c r="P6" t="n">
-        <v>3408.3006328</v>
+        <v>4065.61575484</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>39239.78094539999</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1474,7 +1475,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>19619.8904727</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1483,16 +1484,16 @@
         <v>5080.1292724</v>
       </c>
       <c r="X6" t="n">
-        <v>1015.9967244</v>
+        <v>1523.9950866</v>
       </c>
       <c r="Y6" t="n">
-        <v>444.1364984</v>
+        <v>529.7913945199999</v>
       </c>
       <c r="Z6" t="n">
         <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>4571.9852598</v>
       </c>
       <c r="AB6" t="n">
         <v>0</v>
@@ -1501,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>2285.9926299</v>
       </c>
       <c r="AE6" t="n">
         <v>0</v>
@@ -1531,48 +1532,48 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>21,47958;31,9679;41,4373</t>
+          <t>21,47958;31,14519;41,5217</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,0;31,43559;41,0</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,0;31,21779;41,0</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>21,5635;31,1120;41,551</t>
+          <t>21,5635;31,1680;41,657</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,0;31,5041;41,0</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,0;31,2520;41,0</t>
         </is>
       </c>
       <c r="N7" t="n">
         <v>47958.843548</v>
       </c>
       <c r="O7" t="n">
-        <v>9679.9856944</v>
+        <v>14519.9785416</v>
       </c>
       <c r="P7" t="n">
-        <v>4373.612474</v>
+        <v>5217.0948797</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>43559.9356248</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1581,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>21779.9678124</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1590,16 +1591,16 @@
         <v>5635.522046</v>
       </c>
       <c r="X7" t="n">
-        <v>1120.4207728</v>
+        <v>1680.6311592</v>
       </c>
       <c r="Y7" t="n">
-        <v>551.3609220000001</v>
+        <v>657.6948141</v>
       </c>
       <c r="Z7" t="n">
         <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>5041.893477600001</v>
       </c>
       <c r="AB7" t="n">
         <v>0</v>
@@ -1608,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>2520.9467388</v>
       </c>
       <c r="AE7" t="n">
         <v>0</v>
@@ -1638,48 +1639,48 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>21,54572;31,10764;41,5708</t>
+          <t>21,54572;31,16147;41,6809</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,0;31,48441;41,0</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,0;31,24220;41,0</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>21,6350;31,1237;41,699</t>
+          <t>21,6350;31,1856;41,834</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,0;31,5569;41,0</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,0;31,2784;41,0</t>
         </is>
       </c>
       <c r="N8" t="n">
         <v>54572.9465288</v>
       </c>
       <c r="O8" t="n">
-        <v>10764.8581852</v>
+        <v>16147.2872778</v>
       </c>
       <c r="P8" t="n">
-        <v>5708.487481200001</v>
+        <v>6809.41006686</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>48441.86183340001</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1688,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>24220.9309167</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1697,16 +1698,16 @@
         <v>6350.840627600001</v>
       </c>
       <c r="X8" t="n">
-        <v>1237.7554924</v>
+        <v>1856.6332386</v>
       </c>
       <c r="Y8" t="n">
-        <v>699.2813436</v>
+        <v>834.14274558</v>
       </c>
       <c r="Z8" t="n">
         <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>5569.8997158</v>
       </c>
       <c r="AB8" t="n">
         <v>0</v>
@@ -1715,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>2784.9498579</v>
       </c>
       <c r="AE8" t="n">
         <v>0</v>
@@ -1745,48 +1746,48 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>21,63077;31,12015;41,7505</t>
+          <t>21,63077;31,18023;41,8952</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,0;31,54071;41,0</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,0;31,27035;41,0</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>21,7267;31,1372;41,897</t>
+          <t>21,7267;31,2058;41,1071</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,0;31,6175;41,0</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,0;31,3087;41,0</t>
         </is>
       </c>
       <c r="N9" t="n">
         <v>63077.3006976</v>
       </c>
       <c r="O9" t="n">
-        <v>12015.8910592</v>
+        <v>18023.8365888</v>
       </c>
       <c r="P9" t="n">
-        <v>7505.0167892</v>
+        <v>8952.41288426</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>54071.5097664</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1795,7 +1796,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>27035.7548832</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1804,16 +1805,16 @@
         <v>7267.1300352</v>
       </c>
       <c r="X9" t="n">
-        <v>1372.3986304</v>
+        <v>2058.5979456</v>
       </c>
       <c r="Y9" t="n">
-        <v>897.9142676</v>
+        <v>1071.08344778</v>
       </c>
       <c r="Z9" t="n">
         <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>6175.7938368</v>
       </c>
       <c r="AB9" t="n">
         <v>0</v>
@@ -1822,7 +1823,7 @@
         <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>3087.8969184</v>
       </c>
       <c r="AE9" t="n">
         <v>0</v>
@@ -1852,48 +1853,48 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>21,69453;31,12682;41,9001</t>
+          <t>21,69453;31,19023;41,10737</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,0;31,57070;41,0</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,0;31,28535;41,0</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>21,7954;31,1444;41,1063</t>
+          <t>21,7954;31,2166;41,1268</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,0;31,6498;41,0</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,0;31,3249;41,0</t>
         </is>
       </c>
       <c r="N10" t="n">
         <v>69453.039628</v>
       </c>
       <c r="O10" t="n">
-        <v>12682.4069316</v>
+        <v>19023.6103974</v>
       </c>
       <c r="P10" t="n">
-        <v>9001.268376800001</v>
+        <v>10737.22727804</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>57070.83119220001</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1902,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>28535.4155961</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1911,16 +1912,16 @@
         <v>7954.103206000001</v>
       </c>
       <c r="X10" t="n">
-        <v>1444.0835892</v>
+        <v>2166.1253838</v>
       </c>
       <c r="Y10" t="n">
-        <v>1063.3437304</v>
+        <v>1268.41716412</v>
       </c>
       <c r="Z10" t="n">
         <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>6498.3761514</v>
       </c>
       <c r="AB10" t="n">
         <v>0</v>
@@ -1929,7 +1930,7 @@
         <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>3249.1880757</v>
       </c>
       <c r="AE10" t="n">
         <v>0</v>
@@ -1959,48 +1960,48 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>21,77226;31,13474;41,10838</t>
+          <t>21,77226;31,20212;41,12928</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,0;31,60636;41,0</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,0;31,30318;41,0</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>21,8790;31,1529;41,1266</t>
+          <t>21,8790;31,2293;41,1510</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,0;31,6881;41,0</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,0;31,3440;41,0</t>
         </is>
       </c>
       <c r="N11" t="n">
         <v>77226.1018144</v>
       </c>
       <c r="O11" t="n">
-        <v>13474.826582</v>
+        <v>20212.239873</v>
       </c>
       <c r="P11" t="n">
-        <v>10838.0480488</v>
+        <v>12928.24302964</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>60636.719619</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -2009,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>30318.3598095</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -2018,16 +2019,16 @@
         <v>8790.462788800001</v>
       </c>
       <c r="X11" t="n">
-        <v>1529.167934</v>
+        <v>2293.751901</v>
       </c>
       <c r="Y11" t="n">
-        <v>1266.2127464</v>
+        <v>1510.41091892</v>
       </c>
       <c r="Z11" t="n">
         <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>6881.255703</v>
       </c>
       <c r="AB11" t="n">
         <v>0</v>
@@ -2036,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>3440.6278515</v>
       </c>
       <c r="AE11" t="n">
         <v>0</v>
@@ -2066,48 +2067,48 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>21,91548;31,15141;41,14107</t>
+          <t>21,91548;31,22712;41,16827</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,0;31,68137;41,0</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,0;31,34068;41,0</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>21,10329;31,1708;41,1626</t>
+          <t>21,10329;31,2562;41,1940</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,0;31,7686;41,0</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,0;31,3843;41,0</t>
         </is>
       </c>
       <c r="N12" t="n">
         <v>91548.8925344</v>
       </c>
       <c r="O12" t="n">
-        <v>15141.6647536</v>
+        <v>22712.4971304</v>
       </c>
       <c r="P12" t="n">
-        <v>14107.0263796</v>
+        <v>16827.66718138</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>68137.4913912</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -2116,7 +2117,7 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>34068.7456956</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -2125,16 +2126,16 @@
         <v>10329.5102288</v>
       </c>
       <c r="X12" t="n">
-        <v>1708.0634032</v>
+        <v>2562.0951048</v>
       </c>
       <c r="Y12" t="n">
-        <v>1626.9438388</v>
+        <v>1940.71157914</v>
       </c>
       <c r="Z12" t="n">
         <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>7686.2853144</v>
       </c>
       <c r="AB12" t="n">
         <v>0</v>
@@ -2143,7 +2144,7 @@
         <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>3843.1426572</v>
       </c>
       <c r="AE12" t="n">
         <v>0</v>
@@ -2173,48 +2174,48 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>21,93763;31,15476;41,14570</t>
+          <t>21,93763;31,23214;41,17380</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,0;31,69644;41,0</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,0;31,34822;41,0</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>21,10575;31,1745;41,1679</t>
+          <t>21,10575;31,2617;41,2003</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,0;31,7853;41,0</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,0;31,3926;41,0</t>
         </is>
       </c>
       <c r="N13" t="n">
         <v>93763.7197896</v>
       </c>
       <c r="O13" t="n">
-        <v>15476.50552</v>
+        <v>23214.75828</v>
       </c>
       <c r="P13" t="n">
-        <v>14570.405556</v>
+        <v>17380.4123418</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>69644.27484</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -2223,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>34822.13742</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -2232,16 +2233,16 @@
         <v>10575.0322692</v>
       </c>
       <c r="X13" t="n">
-        <v>1745.20024</v>
+        <v>2617.80036</v>
       </c>
       <c r="Y13" t="n">
-        <v>1679.191668</v>
+        <v>2003.0357754</v>
       </c>
       <c r="Z13" t="n">
         <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>7853.401080000001</v>
       </c>
       <c r="AB13" t="n">
         <v>0</v>
@@ -2250,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>3926.70054</v>
       </c>
       <c r="AE13" t="n">
         <v>0</v>
@@ -2280,48 +2281,48 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>21,95981;31,15811;41,15033</t>
+          <t>21,95981;31,23717;41,17932</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,0;31,71151;41,0</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,0;31,35575;41,0</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>21,10820;31,1782;41,1731</t>
+          <t>21,10820;31,2673;41,2065</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,0;31,8020;41,0</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,0;31,4010;41,0</t>
         </is>
       </c>
       <c r="N14" t="n">
         <v>95981.9813064</v>
       </c>
       <c r="O14" t="n">
-        <v>15811.3462864</v>
+        <v>23717.0194296</v>
       </c>
       <c r="P14" t="n">
-        <v>15033.5718568</v>
+        <v>17932.90357204</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>71151.05828880001</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -2330,7 +2331,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>35575.5291444</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -2339,16 +2340,16 @@
         <v>10820.9448228</v>
       </c>
       <c r="X14" t="n">
-        <v>1782.3370768</v>
+        <v>2673.5056152</v>
       </c>
       <c r="Y14" t="n">
-        <v>1731.4161704</v>
+        <v>2065.33214612</v>
       </c>
       <c r="Z14" t="n">
         <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>8020.5168456</v>
       </c>
       <c r="AB14" t="n">
         <v>0</v>
@@ -2357,7 +2358,7 @@
         <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>4010.2584228</v>
       </c>
       <c r="AE14" t="n">
         <v>0</v>
@@ -2387,48 +2388,48 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>21,98200;31,16146;41,15496</t>
+          <t>21,98200;31,24219;41,18485</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,0;31,72657;41,0</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,0;31,36328;41,0</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>21,11066;31,1819;41,1783</t>
+          <t>21,11066;31,2729;41,2127</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,0;31,8187;41,0</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,0;31,4093;41,0</t>
         </is>
       </c>
       <c r="N15" t="n">
         <v>98200.2148232</v>
       </c>
       <c r="O15" t="n">
-        <v>16146.1870528</v>
+        <v>24219.2805792</v>
       </c>
       <c r="P15" t="n">
-        <v>15496.9510332</v>
+        <v>18485.64873246</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>72657.8417376</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -2437,7 +2438,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>36328.9208688</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -2446,16 +2447,16 @@
         <v>11066.8293764</v>
       </c>
       <c r="X15" t="n">
-        <v>1819.4739136</v>
+        <v>2729.2108704</v>
       </c>
       <c r="Y15" t="n">
-        <v>1783.6639996</v>
+        <v>2127.65634238</v>
       </c>
       <c r="Z15" t="n">
         <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>8187.6326112</v>
       </c>
       <c r="AB15" t="n">
         <v>0</v>
@@ -2464,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>4093.8163056</v>
       </c>
       <c r="AE15" t="n">
         <v>0</v>
@@ -2494,48 +2495,48 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>21,100418;31,16481;41,15960</t>
+          <t>21,100418;31,24721;41,19038</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,0;31,74164;41,0</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,0;31,37082;41,0</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>21,11312;31,1856;41,1835</t>
+          <t>21,11312;31,2784;41,2189</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,0;31,8354;41,0</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,0;31,4177;41,0</t>
         </is>
       </c>
       <c r="N16" t="n">
         <v>100418.47634</v>
       </c>
       <c r="O16" t="n">
-        <v>16481.0278192</v>
+        <v>24721.5417288</v>
       </c>
       <c r="P16" t="n">
-        <v>15960.089334</v>
+        <v>19038.1065627</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>74164.62518639999</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -2544,7 +2545,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>37082.3125932</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -2553,16 +2554,16 @@
         <v>11312.74193</v>
       </c>
       <c r="X16" t="n">
-        <v>1856.6107504</v>
+        <v>2784.9161256</v>
       </c>
       <c r="Y16" t="n">
-        <v>1835.860502</v>
+        <v>2189.9193131</v>
       </c>
       <c r="Z16" t="n">
         <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>8354.748376799998</v>
       </c>
       <c r="AB16" t="n">
         <v>0</v>
@@ -2571,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>4177.374188399999</v>
       </c>
       <c r="AE16" t="n">
         <v>0</v>
@@ -2601,48 +2602,48 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>21,102636;31,16815;41,16423</t>
+          <t>21,102636;31,25223;41,19590</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,0;31,75671;41,0</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,0;31,37835;41,0</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>21,11558;31,1893;41,1888</t>
+          <t>21,11558;31,2840;41,2252</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,0;31,8521;41,0</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,0;31,4260;41,0</t>
         </is>
       </c>
       <c r="N17" t="n">
         <v>102636.7098568</v>
       </c>
       <c r="O17" t="n">
-        <v>16815.8685856</v>
+        <v>25223.8028784</v>
       </c>
       <c r="P17" t="n">
-        <v>16423.4685104</v>
+        <v>19590.85172312</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>75671.4086352</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -2651,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>37835.7043176</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2660,16 +2661,16 @@
         <v>11558.6264836</v>
       </c>
       <c r="X17" t="n">
-        <v>1893.7475872</v>
+        <v>2840.6213808</v>
       </c>
       <c r="Y17" t="n">
-        <v>1888.1083312</v>
+        <v>2252.24350936</v>
       </c>
       <c r="Z17" t="n">
         <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>0</v>
+        <v>8521.8641424</v>
       </c>
       <c r="AB17" t="n">
         <v>0</v>
@@ -2678,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>4260.9320712</v>
       </c>
       <c r="AE17" t="n">
         <v>0</v>
@@ -6534,4 +6535,2796 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AK23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>战斗类型</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>品质</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>pve等级</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>等级强化</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>装备品质%</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>装备强化%</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>天赋</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>研究所核心</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>职阶</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>限制器</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>机械核心</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>HeroId</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Quality</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Level</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>EnhancePeriod</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Equips</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>TalentLevel</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Skills</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>hp</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>atk</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>crit</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>crit_res</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>crit_dmg</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>precise</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>parry</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>dmg_res</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>fury</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>show_level</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>chase</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>academy</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>job</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>limiter</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>mechanical</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>aura</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>type_aura</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>81</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>103</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="n">
+        <v>5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>81</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>3,2,1,1,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T2" t="n">
+        <v>29334.9354276</v>
+      </c>
+      <c r="U2" t="n">
+        <v>5497.1405536</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1998.7718</v>
+      </c>
+      <c r="W2" t="n">
+        <v>2250</v>
+      </c>
+      <c r="X2" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>600</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>121</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>103</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="n">
+        <v>7</v>
+      </c>
+      <c r="O3" t="n">
+        <v>121</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>3,2,2,2,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T3" t="n">
+        <v>41361.3431797</v>
+      </c>
+      <c r="U3" t="n">
+        <v>7818.186054399999</v>
+      </c>
+      <c r="V3" t="n">
+        <v>3058.799</v>
+      </c>
+      <c r="W3" t="n">
+        <v>2250</v>
+      </c>
+      <c r="X3" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>600</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>121</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>161</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>9</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>103</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9</v>
+      </c>
+      <c r="O4" t="n">
+        <v>161</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>4,3,2,2,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T4" t="n">
+        <v>74957.06983800001</v>
+      </c>
+      <c r="U4" t="n">
+        <v>13626.3448</v>
+      </c>
+      <c r="V4" t="n">
+        <v>6550.484</v>
+      </c>
+      <c r="W4" t="n">
+        <v>2250</v>
+      </c>
+      <c r="X4" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>600</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" t="n">
+        <v>161</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>9</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>15</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>103</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="n">
+        <v>9</v>
+      </c>
+      <c r="O5" t="n">
+        <v>161</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>4,3,2,2,0,1,0,0,1</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v>81097.86476280002</v>
+      </c>
+      <c r="U5" t="n">
+        <v>15305.09228</v>
+      </c>
+      <c r="V5" t="n">
+        <v>7383.3692392</v>
+      </c>
+      <c r="W5" t="n">
+        <v>2330</v>
+      </c>
+      <c r="X5" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1260</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>600</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>21,0.0;31,3649.24244;41,0.0</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>21,0.0;31,1824.62122;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" t="n">
+        <v>161</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>9</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>15</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>103</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="n">
+        <v>9</v>
+      </c>
+      <c r="O6" t="n">
+        <v>161</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>4,3,2,2,1,1,0,0,2</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
+        <v>79125.9927476</v>
+      </c>
+      <c r="U6" t="n">
+        <v>15160.46576</v>
+      </c>
+      <c r="V6" t="n">
+        <v>8337.2544784</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1580</v>
+      </c>
+      <c r="X6" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1260</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>600</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>21,0.0;31,7002.48488;41,0.0</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>21,0.0;31,3501.24244;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>11</v>
+      </c>
+      <c r="C7" t="n">
+        <v>240</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>10</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>25</v>
+      </c>
+      <c r="I7" t="n">
+        <v>15</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>103</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="n">
+        <v>11</v>
+      </c>
+      <c r="O7" t="n">
+        <v>240</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>5,3,3,3,0,2,1,0,0</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
+        <v>274711.2495816</v>
+      </c>
+      <c r="U7" t="n">
+        <v>46856.569472</v>
+      </c>
+      <c r="V7" t="n">
+        <v>28489.5987</v>
+      </c>
+      <c r="W7" t="n">
+        <v>3290</v>
+      </c>
+      <c r="X7" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>2340</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>3600</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>11</v>
+      </c>
+      <c r="C8" t="n">
+        <v>240</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>10</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>25</v>
+      </c>
+      <c r="I8" t="n">
+        <v>15</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>103</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="n">
+        <v>11</v>
+      </c>
+      <c r="O8" t="n">
+        <v>240</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>5,3,3,3,1,2,1,0,1</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
+        <v>243973.05269296</v>
+      </c>
+      <c r="U8" t="n">
+        <v>41591.3313792</v>
+      </c>
+      <c r="V8" t="n">
+        <v>29395.69593506</v>
+      </c>
+      <c r="W8" t="n">
+        <v>2540</v>
+      </c>
+      <c r="X8" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>2340</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>3600</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>21,0.0;31,3971.0758016;41,0.0</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>21,0.0;31,1985.5379008;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>11</v>
+      </c>
+      <c r="C9" t="n">
+        <v>240</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" t="n">
+        <v>10</v>
+      </c>
+      <c r="H9" t="n">
+        <v>25</v>
+      </c>
+      <c r="I9" t="n">
+        <v>15</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>103</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="n">
+        <v>11</v>
+      </c>
+      <c r="O9" t="n">
+        <v>240</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="n">
+        <v>10</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>5,3,3,3,2,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
+        <v>282700.9497064</v>
+      </c>
+      <c r="U9" t="n">
+        <v>50277.853568</v>
+      </c>
+      <c r="V9" t="n">
+        <v>33797.45585517</v>
+      </c>
+      <c r="W9" t="n">
+        <v>2790</v>
+      </c>
+      <c r="X9" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>2340</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>3600</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>21,0.0;31,18106.379008;41,0.0</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>21,0.0;31,9052.689504;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11</v>
+      </c>
+      <c r="C10" t="n">
+        <v>240</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>10</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5</v>
+      </c>
+      <c r="G10" t="n">
+        <v>20</v>
+      </c>
+      <c r="H10" t="n">
+        <v>25</v>
+      </c>
+      <c r="I10" t="n">
+        <v>15</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>103</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="n">
+        <v>11</v>
+      </c>
+      <c r="O10" t="n">
+        <v>240</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="n">
+        <v>20</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>5,3,3,3,3,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T10" t="n">
+        <v>295141.9254424</v>
+      </c>
+      <c r="U10" t="n">
+        <v>52628.274688</v>
+      </c>
+      <c r="V10" t="n">
+        <v>33797.45585517</v>
+      </c>
+      <c r="W10" t="n">
+        <v>3040</v>
+      </c>
+      <c r="X10" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>2340</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>3600</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>21,0.0;31,18106.379008;41,0.0</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>21,0.0;31,9052.689504;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>11</v>
+      </c>
+      <c r="C11" t="n">
+        <v>240</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" t="n">
+        <v>30</v>
+      </c>
+      <c r="H11" t="n">
+        <v>25</v>
+      </c>
+      <c r="I11" t="n">
+        <v>15</v>
+      </c>
+      <c r="J11" t="n">
+        <v>10</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>103</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="n">
+        <v>11</v>
+      </c>
+      <c r="O11" t="n">
+        <v>240</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="n">
+        <v>30</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,1,0,10</t>
+        </is>
+      </c>
+      <c r="T11" t="n">
+        <v>337163.6398759999</v>
+      </c>
+      <c r="U11" t="n">
+        <v>62215.54055999999</v>
+      </c>
+      <c r="V11" t="n">
+        <v>40267.50597658</v>
+      </c>
+      <c r="W11" t="n">
+        <v>3290</v>
+      </c>
+      <c r="X11" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>2340</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>3600</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>21,0.0;31,34153.913264;41,0.0</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>21,0.0;31,17076.956632;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="n">
+        <v>240</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G12" t="n">
+        <v>30</v>
+      </c>
+      <c r="H12" t="n">
+        <v>25</v>
+      </c>
+      <c r="I12" t="n">
+        <v>14</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>103</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="n">
+        <v>11</v>
+      </c>
+      <c r="O12" t="n">
+        <v>240</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="n">
+        <v>30</v>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,0,0,5</t>
+        </is>
+      </c>
+      <c r="T12" t="n">
+        <v>307582.9011784</v>
+      </c>
+      <c r="U12" t="n">
+        <v>54978.695808</v>
+      </c>
+      <c r="V12" t="n">
+        <v>33797.45585517</v>
+      </c>
+      <c r="W12" t="n">
+        <v>3210</v>
+      </c>
+      <c r="X12" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>2280</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>3600</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>21,0.0;31,18106.379008;41,0.0</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>21,0.0;31,9052.689504;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>13</v>
+      </c>
+      <c r="C13" t="n">
+        <v>260</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>10</v>
+      </c>
+      <c r="F13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G13" t="n">
+        <v>30</v>
+      </c>
+      <c r="H13" t="n">
+        <v>35</v>
+      </c>
+      <c r="I13" t="n">
+        <v>24</v>
+      </c>
+      <c r="J13" t="n">
+        <v>6</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>103</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="n">
+        <v>13</v>
+      </c>
+      <c r="O13" t="n">
+        <v>260</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="n">
+        <v>30</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,0,6</t>
+        </is>
+      </c>
+      <c r="T13" t="n">
+        <v>447931.20828412</v>
+      </c>
+      <c r="U13" t="n">
+        <v>79739.94296831999</v>
+      </c>
+      <c r="V13" t="n">
+        <v>55367.87850876</v>
+      </c>
+      <c r="W13" t="n">
+        <v>3370</v>
+      </c>
+      <c r="X13" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>2400</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>3600</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>21,0.0;31,22405.37959936;41,0.0</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>21,0.0;31,11202.18979968;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="n">
+        <v>260</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>10</v>
+      </c>
+      <c r="F14" t="n">
+        <v>5</v>
+      </c>
+      <c r="G14" t="n">
+        <v>30</v>
+      </c>
+      <c r="H14" t="n">
+        <v>35</v>
+      </c>
+      <c r="I14" t="n">
+        <v>25</v>
+      </c>
+      <c r="J14" t="n">
+        <v>7</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>103</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="n">
+        <v>13</v>
+      </c>
+      <c r="O14" t="n">
+        <v>260</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="n">
+        <v>30</v>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,1,7</t>
+        </is>
+      </c>
+      <c r="T14" t="n">
+        <v>453755.01581244</v>
+      </c>
+      <c r="U14" t="n">
+        <v>81159.63072383999</v>
+      </c>
+      <c r="V14" t="n">
+        <v>56971.30670148</v>
+      </c>
+      <c r="W14" t="n">
+        <v>3450</v>
+      </c>
+      <c r="X14" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>2460</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>3600</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>21,0.0;31,25643.44286592;41,0.0</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>21,0.0;31,12821.22143296;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>15</v>
+      </c>
+      <c r="C15" t="n">
+        <v>300</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>10</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5</v>
+      </c>
+      <c r="G15" t="n">
+        <v>30</v>
+      </c>
+      <c r="H15" t="n">
+        <v>55</v>
+      </c>
+      <c r="I15" t="n">
+        <v>45</v>
+      </c>
+      <c r="J15" t="n">
+        <v>8</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>103</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="n">
+        <v>15</v>
+      </c>
+      <c r="O15" t="n">
+        <v>300</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="n">
+        <v>30</v>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T15" t="n">
+        <v>1043641.5608205</v>
+      </c>
+      <c r="U15" t="n">
+        <v>187035.94432768</v>
+      </c>
+      <c r="V15" t="n">
+        <v>147604.06075</v>
+      </c>
+      <c r="W15" t="n">
+        <v>3770</v>
+      </c>
+      <c r="X15" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>2700</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>3600</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>21,0.0;31,35018.53592064;41,0.0</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>21,0.0;31,17489.8666624;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>16</v>
+      </c>
+      <c r="C16" t="n">
+        <v>400</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5</v>
+      </c>
+      <c r="G16" t="n">
+        <v>30</v>
+      </c>
+      <c r="H16" t="n">
+        <v>95</v>
+      </c>
+      <c r="I16" t="n">
+        <v>85</v>
+      </c>
+      <c r="J16" t="n">
+        <v>10</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>103</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="n">
+        <v>16</v>
+      </c>
+      <c r="O16" t="n">
+        <v>400</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="n">
+        <v>30</v>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T16" t="n">
+        <v>5306594.991847</v>
+      </c>
+      <c r="U16" t="n">
+        <v>924276.088408</v>
+      </c>
+      <c r="V16" t="n">
+        <v>711789.09852312</v>
+      </c>
+      <c r="W16" t="n">
+        <v>4410</v>
+      </c>
+      <c r="X16" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>3180</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>3600</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>400</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>21,0.0;31,106123.4086352;41,0.0</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>21,0.0;31,53061.7043176;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="n">
+        <v>500</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>10</v>
+      </c>
+      <c r="F17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G17" t="n">
+        <v>30</v>
+      </c>
+      <c r="H17" t="n">
+        <v>160</v>
+      </c>
+      <c r="I17" t="n">
+        <v>150</v>
+      </c>
+      <c r="J17" t="n">
+        <v>10</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>103</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="n">
+        <v>16</v>
+      </c>
+      <c r="O17" t="n">
+        <v>500</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="n">
+        <v>30</v>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T17" t="n">
+        <v>8573463.503525902</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1487029.9005168</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1138098.78932312</v>
+      </c>
+      <c r="W17" t="n">
+        <v>5450</v>
+      </c>
+      <c r="X17" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>3960</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>3600</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>160</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>21,0.0;31,106123.4086352;41,0.0</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>21,0.0;31,53061.7043176;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>9</v>
+      </c>
+      <c r="C18" t="n">
+        <v>161</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>9</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>15</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>103</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="n">
+        <v>9</v>
+      </c>
+      <c r="O18" t="n">
+        <v>256</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>5,3,3,3,1,1,0,0,1</t>
+        </is>
+      </c>
+      <c r="T18" t="n">
+        <v>226613.8513983</v>
+      </c>
+      <c r="U18" t="n">
+        <v>41544.91990634</v>
+      </c>
+      <c r="V18" t="n">
+        <v>26531.41613592</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1580</v>
+      </c>
+      <c r="X18" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>1260</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>600</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>256</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>21,0.0;31,2140.17742622;41,0.0</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>21,0.0;31,1062.93510317;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" t="n">
+        <v>200</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>9</v>
+      </c>
+      <c r="F19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G19" t="n">
+        <v>10</v>
+      </c>
+      <c r="H19" t="n">
+        <v>20</v>
+      </c>
+      <c r="I19" t="n">
+        <v>10</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>103</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="n">
+        <v>10</v>
+      </c>
+      <c r="O19" t="n">
+        <v>260</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="n">
+        <v>10</v>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>5,3,3,3,2,2,0,0,2</t>
+        </is>
+      </c>
+      <c r="T19" t="n">
+        <v>307056.16243696</v>
+      </c>
+      <c r="U19" t="n">
+        <v>54998.7754268</v>
+      </c>
+      <c r="V19" t="n">
+        <v>35879.70607864</v>
+      </c>
+      <c r="W19" t="n">
+        <v>2710</v>
+      </c>
+      <c r="X19" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>2280</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>3600</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>21,0.0;31,2856.2119124;41,0.0</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>21,0.0;31,1428.1059562;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>11</v>
+      </c>
+      <c r="C20" t="n">
+        <v>240</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>10</v>
+      </c>
+      <c r="F20" t="n">
+        <v>5</v>
+      </c>
+      <c r="G20" t="n">
+        <v>20</v>
+      </c>
+      <c r="H20" t="n">
+        <v>25</v>
+      </c>
+      <c r="I20" t="n">
+        <v>15</v>
+      </c>
+      <c r="J20" t="n">
+        <v>5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>103</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>11</v>
+      </c>
+      <c r="O20" t="n">
+        <v>264</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="n">
+        <v>20</v>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>5,3,3,3,3,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T20" t="n">
+        <v>400689.4438392</v>
+      </c>
+      <c r="U20" t="n">
+        <v>70166.5360716</v>
+      </c>
+      <c r="V20" t="n">
+        <v>49589.36315863</v>
+      </c>
+      <c r="W20" t="n">
+        <v>3040</v>
+      </c>
+      <c r="X20" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>2340</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>3600</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>264</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>21,0.0;31,5394.990557200001;41,0.0</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>21,0.0;31,2688.43816572;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>13</v>
+      </c>
+      <c r="C21" t="n">
+        <v>260</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>10</v>
+      </c>
+      <c r="F21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G21" t="n">
+        <v>30</v>
+      </c>
+      <c r="H21" t="n">
+        <v>35</v>
+      </c>
+      <c r="I21" t="n">
+        <v>25</v>
+      </c>
+      <c r="J21" t="n">
+        <v>7</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>103</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="n">
+        <v>13</v>
+      </c>
+      <c r="O21" t="n">
+        <v>266</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="n">
+        <v>30</v>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,1,7</t>
+        </is>
+      </c>
+      <c r="T21" t="n">
+        <v>465454.2498588201</v>
+      </c>
+      <c r="U21" t="n">
+        <v>84018.99220848001</v>
+      </c>
+      <c r="V21" t="n">
+        <v>57357.78270172</v>
+      </c>
+      <c r="W21" t="n">
+        <v>3450</v>
+      </c>
+      <c r="X21" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>2460</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>3600</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>266</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>21,0.0;31,7228.484196640001;41,0.0</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>21,0.0;31,3603.93827928;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>15</v>
+      </c>
+      <c r="C22" t="n">
+        <v>300</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>10</v>
+      </c>
+      <c r="F22" t="n">
+        <v>5</v>
+      </c>
+      <c r="G22" t="n">
+        <v>30</v>
+      </c>
+      <c r="H22" t="n">
+        <v>55</v>
+      </c>
+      <c r="I22" t="n">
+        <v>45</v>
+      </c>
+      <c r="J22" t="n">
+        <v>8</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>103</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="n">
+        <v>15</v>
+      </c>
+      <c r="O22" t="n">
+        <v>270</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="n">
+        <v>30</v>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T22" t="n">
+        <v>536196.01305</v>
+      </c>
+      <c r="U22" t="n">
+        <v>101841.23157632</v>
+      </c>
+      <c r="V22" t="n">
+        <v>70311.78702545</v>
+      </c>
+      <c r="W22" t="n">
+        <v>3770</v>
+      </c>
+      <c r="X22" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>2700</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>3600</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>270</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>21,0.0;31,8764.44518016;41,0.0</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>21,0.0;31,4382.22259008;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>16</v>
+      </c>
+      <c r="C23" t="n">
+        <v>400</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>10</v>
+      </c>
+      <c r="F23" t="n">
+        <v>5</v>
+      </c>
+      <c r="G23" t="n">
+        <v>30</v>
+      </c>
+      <c r="H23" t="n">
+        <v>95</v>
+      </c>
+      <c r="I23" t="n">
+        <v>85</v>
+      </c>
+      <c r="J23" t="n">
+        <v>10</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>103</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="n">
+        <v>16</v>
+      </c>
+      <c r="O23" t="n">
+        <v>280</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="n">
+        <v>30</v>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T23" t="n">
+        <v>681744.0704315001</v>
+      </c>
+      <c r="U23" t="n">
+        <v>138517.656696</v>
+      </c>
+      <c r="V23" t="n">
+        <v>96674.48390935999</v>
+      </c>
+      <c r="W23" t="n">
+        <v>4410</v>
+      </c>
+      <c r="X23" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>3180</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>3600</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>280</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>21,0.0;31,12282.8641424;41,0.0</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>21,0.0;31,6140.9320712;41,0.0</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/opm_hero_property/heroes/103.xlsx
+++ b/opm_hero_property/heroes/103.xlsx
@@ -6799,31 +6799,31 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>29334.9354276</v>
+        <v>7391.0628</v>
       </c>
       <c r="U2" t="n">
-        <v>5497.1405536</v>
+        <v>1536.7857</v>
       </c>
       <c r="V2" t="n">
-        <v>1998.7718</v>
+        <v>590.7718</v>
       </c>
       <c r="W2" t="n">
-        <v>2250</v>
+        <v>562</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="Y2" t="n">
         <v>15000</v>
       </c>
       <c r="Z2" t="n">
-        <v>1200</v>
+        <v>240</v>
       </c>
       <c r="AA2" t="n">
-        <v>2000</v>
+        <v>400</v>
       </c>
       <c r="AB2" t="n">
-        <v>600</v>
+        <v>120</v>
       </c>
       <c r="AC2" t="n">
         <v>0</v>
@@ -6910,31 +6910,31 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>41361.3431797</v>
+        <v>19715.0741</v>
       </c>
       <c r="U3" t="n">
-        <v>7818.186054399999</v>
+        <v>3826.5978</v>
       </c>
       <c r="V3" t="n">
-        <v>3058.799</v>
+        <v>1817.799</v>
       </c>
       <c r="W3" t="n">
-        <v>2250</v>
+        <v>673</v>
       </c>
       <c r="X3" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="Y3" t="n">
         <v>15000</v>
       </c>
       <c r="Z3" t="n">
-        <v>1200</v>
+        <v>480</v>
       </c>
       <c r="AA3" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="AB3" t="n">
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
@@ -7021,31 +7021,31 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>74957.06983800001</v>
+        <v>55494.414</v>
       </c>
       <c r="U4" t="n">
-        <v>13626.3448</v>
+        <v>9942.725</v>
       </c>
       <c r="V4" t="n">
-        <v>6550.484</v>
+        <v>5799.484</v>
       </c>
       <c r="W4" t="n">
-        <v>2250</v>
+        <v>1000</v>
       </c>
       <c r="X4" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Y4" t="n">
         <v>15000</v>
       </c>
       <c r="Z4" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="AA4" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="AB4" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="AC4" t="n">
         <v>0</v>
@@ -7132,31 +7132,31 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>81097.86476280002</v>
+        <v>61635.2089248</v>
       </c>
       <c r="U5" t="n">
-        <v>15305.09228</v>
+        <v>11621.47248</v>
       </c>
       <c r="V5" t="n">
-        <v>7383.3692392</v>
+        <v>6632.3692392</v>
       </c>
       <c r="W5" t="n">
-        <v>2330</v>
+        <v>1080</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Y5" t="n">
         <v>15000</v>
       </c>
       <c r="Z5" t="n">
-        <v>1260</v>
+        <v>960</v>
       </c>
       <c r="AA5" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="AB5" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="AC5" t="n">
         <v>0</v>
@@ -7181,12 +7181,12 @@
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>21,0.0;31,3649.24244;41,0.0</t>
+          <t>21,0;31,3649;41,0</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>21,0.0;31,1824.62122;41,0.0</t>
+          <t>21,0;31,1824;41,0</t>
         </is>
       </c>
     </row>
@@ -7251,31 +7251,31 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>79125.9927476</v>
+        <v>68125.99274760002</v>
       </c>
       <c r="U6" t="n">
-        <v>15160.46576</v>
+        <v>13220.46576</v>
       </c>
       <c r="V6" t="n">
-        <v>8337.2544784</v>
+        <v>7586.2544784</v>
       </c>
       <c r="W6" t="n">
-        <v>1580</v>
+        <v>1080</v>
       </c>
       <c r="X6" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Y6" t="n">
         <v>15000</v>
       </c>
       <c r="Z6" t="n">
-        <v>1260</v>
+        <v>960</v>
       </c>
       <c r="AA6" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="AB6" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="AC6" t="n">
         <v>0</v>
@@ -7300,12 +7300,12 @@
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>21,0.0;31,7002.48488;41,0.0</t>
+          <t>21,0;31,7002;41,0</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>21,0.0;31,3501.24244;41,0.0</t>
+          <t>21,0;31,3501;41,0</t>
         </is>
       </c>
     </row>
@@ -7370,16 +7370,16 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>274711.2495816</v>
+        <v>236144.2248</v>
       </c>
       <c r="U7" t="n">
-        <v>46856.569472</v>
+        <v>39570.264</v>
       </c>
       <c r="V7" t="n">
         <v>28489.5987</v>
       </c>
       <c r="W7" t="n">
-        <v>3290</v>
+        <v>2540</v>
       </c>
       <c r="X7" t="n">
         <v>720</v>
@@ -7530,12 +7530,12 @@
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>21,0.0;31,3971.0758016;41,0.0</t>
+          <t>21,0;31,3971;41,0</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>21,0.0;31,1985.5379008;41,0.0</t>
+          <t>21,0;31,1985;41,0</t>
         </is>
       </c>
     </row>
@@ -7649,12 +7649,12 @@
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>21,0.0;31,18106.379008;41,0.0</t>
+          <t>21,0;31,18106;41,0</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>21,0.0;31,9052.689504;41,0.0</t>
+          <t>21,0;31,9052;41,0</t>
         </is>
       </c>
     </row>
@@ -7768,12 +7768,12 @@
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>21,0.0;31,18106.379008;41,0.0</t>
+          <t>21,0;31,18106;41,0</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>21,0.0;31,9052.689504;41,0.0</t>
+          <t>21,0;31,9052;41,0</t>
         </is>
       </c>
     </row>
@@ -7887,12 +7887,12 @@
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>21,0.0;31,34153.913264;41,0.0</t>
+          <t>21,0;31,34153;41,0</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>21,0.0;31,17076.956632;41,0.0</t>
+          <t>21,0;31,17076;41,0</t>
         </is>
       </c>
     </row>
@@ -8006,12 +8006,12 @@
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>21,0.0;31,18106.379008;41,0.0</t>
+          <t>21,0;31,18106;41,0</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>21,0.0;31,9052.689504;41,0.0</t>
+          <t>21,0;31,9052;41,0</t>
         </is>
       </c>
     </row>
@@ -8125,12 +8125,12 @@
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>21,0.0;31,22405.37959936;41,0.0</t>
+          <t>21,0;31,22405;41,0</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>21,0.0;31,11202.18979968;41,0.0</t>
+          <t>21,0;31,11202;41,0</t>
         </is>
       </c>
     </row>
@@ -8244,12 +8244,12 @@
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>21,0.0;31,25643.44286592;41,0.0</t>
+          <t>21,0;31,25643;41,0</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>21,0.0;31,12821.22143296;41,0.0</t>
+          <t>21,0;31,12821;41,0</t>
         </is>
       </c>
     </row>
@@ -8363,12 +8363,12 @@
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>21,0.0;31,35018.53592064;41,0.0</t>
+          <t>21,0;31,35018;41,0</t>
         </is>
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>21,0.0;31,17489.8666624;41,0.0</t>
+          <t>21,0;31,17489;41,0</t>
         </is>
       </c>
     </row>
@@ -8482,12 +8482,12 @@
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>21,0.0;31,106123.4086352;41,0.0</t>
+          <t>21,0;31,106123;41,0</t>
         </is>
       </c>
       <c r="AK16" t="inlineStr">
         <is>
-          <t>21,0.0;31,53061.7043176;41,0.0</t>
+          <t>21,0;31,53061;41,0</t>
         </is>
       </c>
     </row>
@@ -8601,12 +8601,12 @@
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
-          <t>21,0.0;31,106123.4086352;41,0.0</t>
+          <t>21,0;31,106123;41,0</t>
         </is>
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>21,0.0;31,53061.7043176;41,0.0</t>
+          <t>21,0;31,53061;41,0</t>
         </is>
       </c>
     </row>
@@ -8671,31 +8671,31 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>226613.8513983</v>
+        <v>215613.8513983</v>
       </c>
       <c r="U18" t="n">
-        <v>41544.91990634</v>
+        <v>39604.91990634</v>
       </c>
       <c r="V18" t="n">
-        <v>26531.41613592</v>
+        <v>25780.41613592</v>
       </c>
       <c r="W18" t="n">
-        <v>1580</v>
+        <v>1080</v>
       </c>
       <c r="X18" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Y18" t="n">
         <v>15000</v>
       </c>
       <c r="Z18" t="n">
-        <v>1260</v>
+        <v>960</v>
       </c>
       <c r="AA18" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="AB18" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
@@ -8720,12 +8720,12 @@
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>21,0.0;31,2140.17742622;41,0.0</t>
+          <t>21,0;31,2140;41,0</t>
         </is>
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>21,0.0;31,1062.93510317;41,0.0</t>
+          <t>21,0;31,1062;41,0</t>
         </is>
       </c>
     </row>
@@ -8790,31 +8790,31 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>307056.16243696</v>
+        <v>283956.16243696</v>
       </c>
       <c r="U19" t="n">
-        <v>54998.7754268</v>
+        <v>50924.7754268</v>
       </c>
       <c r="V19" t="n">
-        <v>35879.70607864</v>
+        <v>34302.90607864001</v>
       </c>
       <c r="W19" t="n">
-        <v>2710</v>
+        <v>1660</v>
       </c>
       <c r="X19" t="n">
-        <v>720</v>
+        <v>450</v>
       </c>
       <c r="Y19" t="n">
         <v>15000</v>
       </c>
       <c r="Z19" t="n">
-        <v>2280</v>
+        <v>1470</v>
       </c>
       <c r="AA19" t="n">
-        <v>3600</v>
+        <v>2250</v>
       </c>
       <c r="AB19" t="n">
-        <v>1080</v>
+        <v>675</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
@@ -8839,12 +8839,12 @@
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>21,0.0;31,2856.2119124;41,0.0</t>
+          <t>21,0;31,2856;41,0</t>
         </is>
       </c>
       <c r="AK19" t="inlineStr">
         <is>
-          <t>21,0.0;31,1428.1059562;41,0.0</t>
+          <t>21,0;31,1428;41,0</t>
         </is>
       </c>
     </row>
@@ -8958,12 +8958,12 @@
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
-          <t>21,0.0;31,5394.990557200001;41,0.0</t>
+          <t>21,0;31,5394;41,0</t>
         </is>
       </c>
       <c r="AK20" t="inlineStr">
         <is>
-          <t>21,0.0;31,2688.43816572;41,0.0</t>
+          <t>21,0;31,2688;41,0</t>
         </is>
       </c>
     </row>
@@ -9077,12 +9077,12 @@
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
-          <t>21,0.0;31,7228.484196640001;41,0.0</t>
+          <t>21,0;31,7228;41,0</t>
         </is>
       </c>
       <c r="AK21" t="inlineStr">
         <is>
-          <t>21,0.0;31,3603.93827928;41,0.0</t>
+          <t>21,0;31,3603;41,0</t>
         </is>
       </c>
     </row>
@@ -9196,12 +9196,12 @@
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
-          <t>21,0.0;31,8764.44518016;41,0.0</t>
+          <t>21,0;31,8764;41,0</t>
         </is>
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t>21,0.0;31,4382.22259008;41,0.0</t>
+          <t>21,0;31,4382;41,0</t>
         </is>
       </c>
     </row>
@@ -9315,12 +9315,12 @@
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
-          <t>21,0.0;31,12282.8641424;41,0.0</t>
+          <t>21,0;31,12282;41,0</t>
         </is>
       </c>
       <c r="AK23" t="inlineStr">
         <is>
-          <t>21,0.0;31,6140.9320712;41,0.0</t>
+          <t>21,0;31,6140;41,0</t>
         </is>
       </c>
     </row>

--- a/opm_hero_property/heroes/103.xlsx
+++ b/opm_hero_property/heroes/103.xlsx
@@ -6543,7 +6543,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK23"/>
+  <dimension ref="A1:AS25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6737,6 +6737,46 @@
           <t>type_aura</t>
         </is>
       </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>基础战力</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>装备战力</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>天赋战力</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t>研究所战力</t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>职阶战力</t>
+        </is>
+      </c>
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t>机械核心战力</t>
+        </is>
+      </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t>限制器战力</t>
+        </is>
+      </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t>总战力</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -6745,31 +6785,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C2" t="n">
+        <v>400</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2" t="n">
         <v>5</v>
       </c>
-      <c r="C2" t="n">
-        <v>81</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -6781,106 +6821,138 @@
         <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="O2" t="n">
-        <v>81</v>
+        <v>400</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>3,2,1,1,0,0,0,0,0</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>7391.0628</v>
+        <v>5441471.991847</v>
       </c>
       <c r="U2" t="n">
-        <v>1536.7857</v>
+        <v>948004.088408</v>
       </c>
       <c r="V2" t="n">
-        <v>590.7718</v>
+        <v>733629.09852312</v>
       </c>
       <c r="W2" t="n">
-        <v>562</v>
+        <v>4410</v>
       </c>
       <c r="X2" t="n">
-        <v>80</v>
+        <v>720</v>
       </c>
       <c r="Y2" t="n">
         <v>15000</v>
       </c>
       <c r="Z2" t="n">
-        <v>240</v>
+        <v>3180</v>
       </c>
       <c r="AA2" t="n">
+        <v>3600</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
         <v>400</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>120</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>81</v>
       </c>
       <c r="AE2" t="n">
         <v>5000</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI2" t="n">
         <v>0</v>
       </c>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>21,0;31,106123;41,0</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>21,0;31,53061;41,0</t>
+        </is>
+      </c>
+      <c r="AL2" t="n">
+        <v>11183008.82258</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1824361.79866444</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>481003.7</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>2007105.4</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>607436.3471257</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>16217185.01837014</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>pve</t>
+          <t>pvp</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C3" t="n">
-        <v>121</v>
+        <v>400</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -6892,73 +6964,105 @@
         <v>2</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="O3" t="n">
-        <v>121</v>
+        <v>280</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>3,2,2,2,0,0,0,0,0</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>19715.0741</v>
+        <v>681744.0704315001</v>
       </c>
       <c r="U3" t="n">
-        <v>3826.5978</v>
+        <v>138517.656696</v>
       </c>
       <c r="V3" t="n">
-        <v>1817.799</v>
+        <v>96674.48390935999</v>
       </c>
       <c r="W3" t="n">
-        <v>673</v>
+        <v>4410</v>
       </c>
       <c r="X3" t="n">
-        <v>160</v>
+        <v>720</v>
       </c>
       <c r="Y3" t="n">
         <v>15000</v>
       </c>
       <c r="Z3" t="n">
-        <v>480</v>
+        <v>3180</v>
       </c>
       <c r="AA3" t="n">
-        <v>800</v>
+        <v>3600</v>
       </c>
       <c r="AB3" t="n">
-        <v>240</v>
+        <v>1080</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>121</v>
+        <v>280</v>
       </c>
       <c r="AE3" t="n">
         <v>5000</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI3" t="n">
         <v>0</v>
       </c>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>21,0;31,12282;41,0</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>21,0;31,6140;41,0</t>
+        </is>
+      </c>
+      <c r="AL3" t="n">
+        <v>1268043.13356</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>206551.88636278</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>68760.45</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>480680.6</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>71206.66418994</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>2209511.68411272</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -6967,16 +7071,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -6985,10 +7089,10 @@
         <v>-1</v>
       </c>
       <c r="H4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -7003,10 +7107,10 @@
         <v>2</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -7017,50 +7121,50 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>4,3,2,2,0,0,0,0,0</t>
+          <t>3,2,1,1,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>55494.414</v>
+        <v>7391.0628</v>
       </c>
       <c r="U4" t="n">
-        <v>9942.725</v>
+        <v>1536.7857</v>
       </c>
       <c r="V4" t="n">
-        <v>5799.484</v>
+        <v>590.7718</v>
       </c>
       <c r="W4" t="n">
-        <v>1000</v>
+        <v>562</v>
       </c>
       <c r="X4" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="Y4" t="n">
         <v>15000</v>
       </c>
       <c r="Z4" t="n">
-        <v>900</v>
+        <v>240</v>
       </c>
       <c r="AA4" t="n">
-        <v>1500</v>
+        <v>400</v>
       </c>
       <c r="AB4" t="n">
-        <v>450</v>
+        <v>120</v>
       </c>
       <c r="AC4" t="n">
         <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="AE4" t="n">
         <v>5000</v>
       </c>
       <c r="AF4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
         <v>0</v>
@@ -7070,6 +7174,30 @@
       </c>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="n">
+        <v>18655.17198</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>4549.950000000001</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>23205.12198</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -7078,16 +7206,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -7096,13 +7224,13 @@
         <v>-1</v>
       </c>
       <c r="H5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -7114,10 +7242,10 @@
         <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -7128,66 +7256,82 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>4,3,2,2,0,1,0,0,1</t>
+          <t>3,2,2,2,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>61635.2089248</v>
+        <v>19715.0741</v>
       </c>
       <c r="U5" t="n">
-        <v>11621.47248</v>
+        <v>3826.5978</v>
       </c>
       <c r="V5" t="n">
-        <v>6632.3692392</v>
+        <v>1817.799</v>
       </c>
       <c r="W5" t="n">
-        <v>1080</v>
+        <v>673</v>
       </c>
       <c r="X5" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="Y5" t="n">
         <v>15000</v>
       </c>
       <c r="Z5" t="n">
-        <v>960</v>
+        <v>480</v>
       </c>
       <c r="AA5" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="AB5" t="n">
-        <v>450</v>
+        <v>240</v>
       </c>
       <c r="AC5" t="n">
         <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="AE5" t="n">
         <v>5000</v>
       </c>
       <c r="AF5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
         <v>0</v>
       </c>
-      <c r="AJ5" t="inlineStr">
-        <is>
-          <t>21,0;31,3649;41,0</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>21,0;31,1824;41,0</t>
-        </is>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="n">
+        <v>47465.04317</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>11988.35</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>59453.39317</v>
       </c>
     </row>
     <row r="6">
@@ -7212,16 +7356,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H6" t="n">
         <v>15</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -7243,24 +7387,24 @@
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>4,3,2,2,1,1,0,0,2</t>
+          <t>4,3,2,2,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>68125.99274760002</v>
+        <v>55494.414</v>
       </c>
       <c r="U6" t="n">
-        <v>13220.46576</v>
+        <v>9942.725</v>
       </c>
       <c r="V6" t="n">
-        <v>7586.2544784</v>
+        <v>5799.484</v>
       </c>
       <c r="W6" t="n">
-        <v>1080</v>
+        <v>1000</v>
       </c>
       <c r="X6" t="n">
         <v>300</v>
@@ -7269,7 +7413,7 @@
         <v>15000</v>
       </c>
       <c r="Z6" t="n">
-        <v>960</v>
+        <v>900</v>
       </c>
       <c r="AA6" t="n">
         <v>1500</v>
@@ -7290,23 +7434,39 @@
         <v>15</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
         <v>0</v>
       </c>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>21,0;31,7002;41,0</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>21,0;31,3501;41,0</t>
-        </is>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="n">
+        <v>113885.4495</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>32846</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>9526.799999999999</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>162418.7495</v>
       </c>
     </row>
     <row r="7">
@@ -7316,31 +7476,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>-1</v>
       </c>
       <c r="H7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I7" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -7352,10 +7512,10 @@
         <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -7366,59 +7526,91 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>5,3,3,3,0,2,1,0,0</t>
+          <t>4,3,2,2,0,1,0,0,1</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>236144.2248</v>
+        <v>61635.2089248</v>
       </c>
       <c r="U7" t="n">
-        <v>39570.264</v>
+        <v>11621.47248</v>
       </c>
       <c r="V7" t="n">
-        <v>28489.5987</v>
+        <v>6632.3692392</v>
       </c>
       <c r="W7" t="n">
-        <v>2540</v>
+        <v>1080</v>
       </c>
       <c r="X7" t="n">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="Y7" t="n">
         <v>15000</v>
       </c>
       <c r="Z7" t="n">
-        <v>2340</v>
+        <v>960</v>
       </c>
       <c r="AA7" t="n">
-        <v>3600</v>
+        <v>1500</v>
       </c>
       <c r="AB7" t="n">
-        <v>1080</v>
+        <v>450</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="AE7" t="n">
         <v>5000</v>
       </c>
       <c r="AF7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI7" t="n">
         <v>0</v>
       </c>
-      <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>21,0;31,3649;41,0</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>21,0;31,1824;41,0</t>
+        </is>
+      </c>
+      <c r="AL7" t="n">
+        <v>113885.4495</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>32846</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>9709.799999999999</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>22513.2426622</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>185114.9921622</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7427,31 +7619,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>15</v>
+      </c>
+      <c r="I8" t="n">
         <v>5</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>25</v>
-      </c>
-      <c r="I8" t="n">
-        <v>15</v>
-      </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -7463,10 +7655,10 @@
         <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -7477,66 +7669,90 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>5,3,3,3,1,2,1,0,1</t>
+          <t>4,3,2,2,1,1,0,0,2</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>243973.05269296</v>
+        <v>68125.99274760002</v>
       </c>
       <c r="U8" t="n">
-        <v>41591.3313792</v>
+        <v>13220.46576</v>
       </c>
       <c r="V8" t="n">
-        <v>29395.69593506</v>
+        <v>7586.2544784</v>
       </c>
       <c r="W8" t="n">
-        <v>2540</v>
+        <v>1080</v>
       </c>
       <c r="X8" t="n">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="Y8" t="n">
         <v>15000</v>
       </c>
       <c r="Z8" t="n">
-        <v>2340</v>
+        <v>960</v>
       </c>
       <c r="AA8" t="n">
-        <v>3600</v>
+        <v>1500</v>
       </c>
       <c r="AB8" t="n">
-        <v>1080</v>
+        <v>450</v>
       </c>
       <c r="AC8" t="n">
         <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="AE8" t="n">
         <v>5000</v>
       </c>
       <c r="AF8" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI8" t="n">
         <v>0</v>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>21,0;31,3971;41,0</t>
+          <t>21,0;31,7002;41,0</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>21,0;31,1985;41,0</t>
-        </is>
+          <t>21,0;31,3501;41,0</t>
+        </is>
+      </c>
+      <c r="AL8" t="n">
+        <v>113885.4495</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>32846</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>661.0849180000001</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>9709.799999999999</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>44860.8353244</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>208123.6697424</v>
       </c>
     </row>
     <row r="9">
@@ -7561,7 +7777,7 @@
         <v>5</v>
       </c>
       <c r="G9" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H9" t="n">
         <v>25</v>
@@ -7570,7 +7786,7 @@
         <v>15</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -7592,24 +7808,24 @@
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>5,3,3,3,2,2,1,0,5</t>
+          <t>5,3,3,3,0,2,1,0,0</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>282700.9497064</v>
+        <v>235355.2248</v>
       </c>
       <c r="U9" t="n">
-        <v>50277.853568</v>
+        <v>39727.264</v>
       </c>
       <c r="V9" t="n">
-        <v>33797.45585517</v>
+        <v>28616.5987</v>
       </c>
       <c r="W9" t="n">
-        <v>2790</v>
+        <v>2540</v>
       </c>
       <c r="X9" t="n">
         <v>720</v>
@@ -7642,20 +7858,36 @@
         <v>15</v>
       </c>
       <c r="AH9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
         <v>0</v>
       </c>
-      <c r="AJ9" t="inlineStr">
-        <is>
-          <t>21,0;31,18106;41,0</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>21,0;31,9052;41,0</t>
-        </is>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="n">
+        <v>517608.388925</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>39338.4</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>686336.7889249999</v>
       </c>
     </row>
     <row r="10">
@@ -7680,7 +7912,7 @@
         <v>5</v>
       </c>
       <c r="G10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>25</v>
@@ -7689,7 +7921,7 @@
         <v>15</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -7711,24 +7943,24 @@
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>5,3,3,3,3,2,1,0,5</t>
+          <t>5,3,3,3,1,2,1,0,1</t>
         </is>
       </c>
       <c r="T10" t="n">
-        <v>295141.9254424</v>
+        <v>243184.05269296</v>
       </c>
       <c r="U10" t="n">
-        <v>52628.274688</v>
+        <v>41748.3313792</v>
       </c>
       <c r="V10" t="n">
-        <v>33797.45585517</v>
+        <v>29522.69593506</v>
       </c>
       <c r="W10" t="n">
-        <v>3040</v>
+        <v>2540</v>
       </c>
       <c r="X10" t="n">
         <v>720</v>
@@ -7761,20 +7993,44 @@
         <v>15</v>
       </c>
       <c r="AH10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI10" t="n">
         <v>0</v>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>21,0;31,18106;41,0</t>
+          <t>21,0;31,3971;41,0</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>21,0;31,9052;41,0</t>
-        </is>
+          <t>21,0;31,1985;41,0</t>
+        </is>
+      </c>
+      <c r="AL10" t="n">
+        <v>517608.388925</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>2865.8881464</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>39338.4</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>24118.363764635</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>713321.040836035</v>
       </c>
     </row>
     <row r="11">
@@ -7799,7 +8055,7 @@
         <v>5</v>
       </c>
       <c r="G11" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H11" t="n">
         <v>25</v>
@@ -7808,7 +8064,7 @@
         <v>15</v>
       </c>
       <c r="J11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -7830,24 +8086,24 @@
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,1,0,10</t>
+          <t>5,3,3,3,2,2,1,0,5</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>337163.6398759999</v>
+        <v>281911.9497064</v>
       </c>
       <c r="U11" t="n">
-        <v>62215.54055999999</v>
+        <v>50434.853568</v>
       </c>
       <c r="V11" t="n">
-        <v>40267.50597658</v>
+        <v>33924.45585517</v>
       </c>
       <c r="W11" t="n">
-        <v>3290</v>
+        <v>2790</v>
       </c>
       <c r="X11" t="n">
         <v>720</v>
@@ -7880,20 +8136,44 @@
         <v>15</v>
       </c>
       <c r="AH11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AI11" t="n">
         <v>0</v>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>21,0;31,34153;41,0</t>
+          <t>21,0;31,18106;41,0</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>21,0;31,17076;41,0</t>
-        </is>
+          <t>21,0;31,9052;41,0</t>
+        </is>
+      </c>
+      <c r="AL11" t="n">
+        <v>517608.388925</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>31937.2696104</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>39338.4</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>119434.5019574275</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>837708.5604928274</v>
       </c>
     </row>
     <row r="12">
@@ -7918,13 +8198,13 @@
         <v>5</v>
       </c>
       <c r="G12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H12" t="n">
         <v>25</v>
       </c>
       <c r="I12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J12" t="n">
         <v>5</v>
@@ -7949,24 +8229,24 @@
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,0,0,5</t>
+          <t>5,3,3,3,3,2,1,0,5</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>307582.9011784</v>
+        <v>294352.9254424</v>
       </c>
       <c r="U12" t="n">
-        <v>54978.695808</v>
+        <v>52785.274688</v>
       </c>
       <c r="V12" t="n">
-        <v>33797.45585517</v>
+        <v>33924.45585517</v>
       </c>
       <c r="W12" t="n">
-        <v>3210</v>
+        <v>3040</v>
       </c>
       <c r="X12" t="n">
         <v>720</v>
@@ -7975,7 +8255,7 @@
         <v>15000</v>
       </c>
       <c r="Z12" t="n">
-        <v>2280</v>
+        <v>2340</v>
       </c>
       <c r="AA12" t="n">
         <v>3600</v>
@@ -7996,7 +8276,7 @@
         <v>25</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH12" t="n">
         <v>5</v>
@@ -8014,6 +8294,30 @@
           <t>21,0;31,9052;41,0</t>
         </is>
       </c>
+      <c r="AL12" t="n">
+        <v>517608.388925</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>61008.6510744</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>39338.4</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>119434.5019574275</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>866779.9419568275</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8022,10 +8326,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -8040,13 +8344,13 @@
         <v>30</v>
       </c>
       <c r="H13" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I13" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -8058,10 +8362,10 @@
         <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -8072,20 +8376,20 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,0,6</t>
+          <t>5,3,3,3,4,2,1,0,10</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>447931.20828412</v>
+        <v>336374.6398759999</v>
       </c>
       <c r="U13" t="n">
-        <v>79739.94296831999</v>
+        <v>62372.54055999999</v>
       </c>
       <c r="V13" t="n">
-        <v>55367.87850876</v>
+        <v>40394.50597658</v>
       </c>
       <c r="W13" t="n">
-        <v>3370</v>
+        <v>3290</v>
       </c>
       <c r="X13" t="n">
         <v>720</v>
@@ -8094,7 +8398,7 @@
         <v>15000</v>
       </c>
       <c r="Z13" t="n">
-        <v>2400</v>
+        <v>2340</v>
       </c>
       <c r="AA13" t="n">
         <v>3600</v>
@@ -8106,32 +8410,56 @@
         <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AE13" t="n">
         <v>5000</v>
       </c>
       <c r="AF13" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AG13" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AH13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AI13" t="n">
         <v>0</v>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>21,0;31,22405;41,0</t>
+          <t>21,0;31,34153;41,0</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>21,0;31,11202;41,0</t>
-        </is>
+          <t>21,0;31,17076;41,0</t>
+        </is>
+      </c>
+      <c r="AL13" t="n">
+        <v>517608.388925</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>90080.0325384</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>39338.4</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>236152.257641935</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>1012569.079105335</v>
       </c>
     </row>
     <row r="14">
@@ -8141,10 +8469,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -8159,13 +8487,13 @@
         <v>30</v>
       </c>
       <c r="H14" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I14" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="J14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8177,10 +8505,10 @@
         <v>2</v>
       </c>
       <c r="N14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -8191,20 +8519,20 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,1,7</t>
+          <t>5,3,3,3,4,2,0,0,5</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>453755.01581244</v>
+        <v>306793.9011784</v>
       </c>
       <c r="U14" t="n">
-        <v>81159.63072383999</v>
+        <v>55135.695808</v>
       </c>
       <c r="V14" t="n">
-        <v>56971.30670148</v>
+        <v>33924.45585517</v>
       </c>
       <c r="W14" t="n">
-        <v>3450</v>
+        <v>3210</v>
       </c>
       <c r="X14" t="n">
         <v>720</v>
@@ -8213,7 +8541,7 @@
         <v>15000</v>
       </c>
       <c r="Z14" t="n">
-        <v>2460</v>
+        <v>2280</v>
       </c>
       <c r="AA14" t="n">
         <v>3600</v>
@@ -8225,32 +8553,56 @@
         <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AE14" t="n">
         <v>5000</v>
       </c>
       <c r="AF14" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AG14" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="AH14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AI14" t="n">
         <v>0</v>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>21,0;31,25643;41,0</t>
+          <t>21,0;31,18106;41,0</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>21,0;31,12821;41,0</t>
-        </is>
+          <t>21,0;31,9052;41,0</t>
+        </is>
+      </c>
+      <c r="AL14" t="n">
+        <v>517608.388925</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>90080.0325384</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>39155.4</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>119434.5019574275</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>895668.3234208274</v>
       </c>
     </row>
     <row r="15">
@@ -8260,10 +8612,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -8278,13 +8630,13 @@
         <v>30</v>
       </c>
       <c r="H15" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="I15" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="J15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -8296,10 +8648,10 @@
         <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -8310,20 +8662,20 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,3,3,3,8</t>
+          <t>5,3,3,3,4,2,2,0,6</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>1043641.5608205</v>
+        <v>450431.20828412</v>
       </c>
       <c r="U15" t="n">
-        <v>187035.94432768</v>
+        <v>80547.94296831999</v>
       </c>
       <c r="V15" t="n">
-        <v>147604.06075</v>
+        <v>56141.87850876</v>
       </c>
       <c r="W15" t="n">
-        <v>3770</v>
+        <v>3370</v>
       </c>
       <c r="X15" t="n">
         <v>720</v>
@@ -8332,7 +8684,7 @@
         <v>15000</v>
       </c>
       <c r="Z15" t="n">
-        <v>2700</v>
+        <v>2400</v>
       </c>
       <c r="AA15" t="n">
         <v>3600</v>
@@ -8344,32 +8696,56 @@
         <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="AE15" t="n">
         <v>5000</v>
       </c>
       <c r="AF15" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="AG15" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="AH15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AI15" t="n">
         <v>0</v>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>21,0;31,35018;41,0</t>
+          <t>21,0;31,22405;41,0</t>
         </is>
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>21,0;31,17489;41,0</t>
-        </is>
+          <t>21,0;31,11202;41,0</t>
+        </is>
+      </c>
+      <c r="AL15" t="n">
+        <v>799325.76646</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>134178.69535708</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>33220.2</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>111894</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>149878.704373818</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>1342766.316190898</v>
       </c>
     </row>
     <row r="16">
@@ -8379,10 +8755,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -8397,13 +8773,13 @@
         <v>30</v>
       </c>
       <c r="H16" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="I16" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="J16" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -8415,10 +8791,10 @@
         <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -8429,20 +8805,20 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,2,2,1,7</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>5306594.991847</v>
+        <v>456255.01581244</v>
       </c>
       <c r="U16" t="n">
-        <v>924276.088408</v>
+        <v>81967.63072383999</v>
       </c>
       <c r="V16" t="n">
-        <v>711789.09852312</v>
+        <v>57745.30670148</v>
       </c>
       <c r="W16" t="n">
-        <v>4410</v>
+        <v>3450</v>
       </c>
       <c r="X16" t="n">
         <v>720</v>
@@ -8451,7 +8827,7 @@
         <v>15000</v>
       </c>
       <c r="Z16" t="n">
-        <v>3180</v>
+        <v>2460</v>
       </c>
       <c r="AA16" t="n">
         <v>3600</v>
@@ -8463,32 +8839,56 @@
         <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="AE16" t="n">
         <v>5000</v>
       </c>
       <c r="AF16" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="AG16" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="AH16" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI16" t="n">
         <v>0</v>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>21,0;31,106123;41,0</t>
+          <t>21,0;31,25643;41,0</t>
         </is>
       </c>
       <c r="AK16" t="inlineStr">
         <is>
-          <t>21,0;31,53061;41,0</t>
-        </is>
+          <t>21,0;31,12821;41,0</t>
+        </is>
+      </c>
+      <c r="AL16" t="n">
+        <v>799325.76646</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>134178.69535708</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>33220.2</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>112077</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>174718.069523366</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>1367788.681340446</v>
       </c>
     </row>
     <row r="17">
@@ -8498,10 +8898,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -8516,13 +8916,13 @@
         <v>30</v>
       </c>
       <c r="H17" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="I17" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="J17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -8534,10 +8934,10 @@
         <v>2</v>
       </c>
       <c r="N17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -8548,20 +8948,20 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,3,3,3,8</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>8573463.503525902</v>
+        <v>1081136.5608205</v>
       </c>
       <c r="U17" t="n">
-        <v>1487029.9005168</v>
+        <v>193892.94432768</v>
       </c>
       <c r="V17" t="n">
-        <v>1138098.78932312</v>
+        <v>154237.06075</v>
       </c>
       <c r="W17" t="n">
-        <v>5450</v>
+        <v>3770</v>
       </c>
       <c r="X17" t="n">
         <v>720</v>
@@ -8570,7 +8970,7 @@
         <v>15000</v>
       </c>
       <c r="Z17" t="n">
-        <v>3960</v>
+        <v>2700</v>
       </c>
       <c r="AA17" t="n">
         <v>3600</v>
@@ -8582,66 +8982,90 @@
         <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="AE17" t="n">
         <v>5000</v>
       </c>
       <c r="AF17" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="AG17" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="AH17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI17" t="n">
         <v>0</v>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
-          <t>21,0;31,106123;41,0</t>
+          <t>21,0;31,35018;41,0</t>
         </is>
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>21,0;31,53061;41,0</t>
-        </is>
+          <t>21,0;31,17489;41,0</t>
+        </is>
+      </c>
+      <c r="AL17" t="n">
+        <v>1838295.73074</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>295497.26607102</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>155697.55</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>685015</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>231739.979182972</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>3320514.475993992</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>pvp</t>
+          <t>pve</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>161</v>
+        <v>400</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H18" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="I18" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -8653,114 +9077,138 @@
         <v>2</v>
       </c>
       <c r="N18" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="O18" t="n">
-        <v>256</v>
+        <v>400</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>5,3,3,3,1,1,0,0,1</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>215613.8513983</v>
+        <v>5441471.991847</v>
       </c>
       <c r="U18" t="n">
-        <v>39604.91990634</v>
+        <v>948004.088408</v>
       </c>
       <c r="V18" t="n">
-        <v>25780.41613592</v>
+        <v>733629.09852312</v>
       </c>
       <c r="W18" t="n">
-        <v>1080</v>
+        <v>4410</v>
       </c>
       <c r="X18" t="n">
-        <v>300</v>
+        <v>720</v>
       </c>
       <c r="Y18" t="n">
         <v>15000</v>
       </c>
       <c r="Z18" t="n">
-        <v>960</v>
+        <v>3180</v>
       </c>
       <c r="AA18" t="n">
-        <v>1500</v>
+        <v>3600</v>
       </c>
       <c r="AB18" t="n">
-        <v>450</v>
+        <v>1080</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
       </c>
       <c r="AD18" t="n">
-        <v>256</v>
+        <v>400</v>
       </c>
       <c r="AE18" t="n">
         <v>5000</v>
       </c>
       <c r="AF18" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="AG18" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="AH18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AI18" t="n">
         <v>0</v>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>21,0;31,2140;41,0</t>
+          <t>21,0;31,106123;41,0</t>
         </is>
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>21,0;31,1062;41,0</t>
-        </is>
+          <t>21,0;31,53061;41,0</t>
+        </is>
+      </c>
+      <c r="AL18" t="n">
+        <v>11183008.82258</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>1824361.79866444</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>481003.7</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>2007105.4</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>607436.3471257</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>16217185.01837014</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>pvp</t>
+          <t>pve</t>
         </is>
       </c>
       <c r="B19" t="n">
+        <v>16</v>
+      </c>
+      <c r="C19" t="n">
+        <v>500</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
         <v>10</v>
-      </c>
-      <c r="C19" t="n">
-        <v>200</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>9</v>
       </c>
       <c r="F19" t="n">
         <v>5</v>
       </c>
       <c r="G19" t="n">
+        <v>30</v>
+      </c>
+      <c r="H19" t="n">
+        <v>160</v>
+      </c>
+      <c r="I19" t="n">
+        <v>150</v>
+      </c>
+      <c r="J19" t="n">
         <v>10</v>
-      </c>
-      <c r="H19" t="n">
-        <v>20</v>
-      </c>
-      <c r="I19" t="n">
-        <v>10</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -8772,80 +9220,104 @@
         <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="O19" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>5,3,3,3,2,2,0,0,2</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>283956.16243696</v>
+        <v>8883181.503525902</v>
       </c>
       <c r="U19" t="n">
-        <v>50924.7754268</v>
+        <v>1541062.9005168</v>
       </c>
       <c r="V19" t="n">
-        <v>34302.90607864001</v>
+        <v>1187330.78932312</v>
       </c>
       <c r="W19" t="n">
-        <v>1660</v>
+        <v>5450</v>
       </c>
       <c r="X19" t="n">
-        <v>450</v>
+        <v>720</v>
       </c>
       <c r="Y19" t="n">
         <v>15000</v>
       </c>
       <c r="Z19" t="n">
-        <v>1470</v>
+        <v>3960</v>
       </c>
       <c r="AA19" t="n">
-        <v>2250</v>
+        <v>3600</v>
       </c>
       <c r="AB19" t="n">
-        <v>675</v>
+        <v>1080</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="AE19" t="n">
         <v>5000</v>
       </c>
       <c r="AF19" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="AG19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH19" t="n">
         <v>10</v>
       </c>
-      <c r="AH19" t="n">
-        <v>2</v>
-      </c>
       <c r="AI19" t="n">
         <v>0</v>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>21,0;31,2856;41,0</t>
+          <t>21,0;31,106123;41,0</t>
         </is>
       </c>
       <c r="AK19" t="inlineStr">
         <is>
-          <t>21,0;31,1428;41,0</t>
-        </is>
+          <t>21,0;31,53061;41,0</t>
+        </is>
+      </c>
+      <c r="AL19" t="n">
+        <v>18142566.50102</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>2965840.05755406</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>1061573.2</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>3470479</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>607436.3471257</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>26362164.05569977</v>
       </c>
     </row>
     <row r="20">
@@ -8855,31 +9327,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C20" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>15</v>
+      </c>
+      <c r="I20" t="n">
         <v>5</v>
       </c>
-      <c r="G20" t="n">
-        <v>20</v>
-      </c>
-      <c r="H20" t="n">
-        <v>25</v>
-      </c>
-      <c r="I20" t="n">
-        <v>15</v>
-      </c>
       <c r="J20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -8891,80 +9363,104 @@
         <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O20" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>5,3,3,3,3,2,1,0,5</t>
+          <t>5,3,3,3,1,1,0,0,1</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>400689.4438392</v>
+        <v>215613.8513983</v>
       </c>
       <c r="U20" t="n">
-        <v>70166.5360716</v>
+        <v>39604.91990634</v>
       </c>
       <c r="V20" t="n">
-        <v>49589.36315863</v>
+        <v>25780.41613592</v>
       </c>
       <c r="W20" t="n">
-        <v>3040</v>
+        <v>1080</v>
       </c>
       <c r="X20" t="n">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="Y20" t="n">
         <v>15000</v>
       </c>
       <c r="Z20" t="n">
-        <v>2340</v>
+        <v>960</v>
       </c>
       <c r="AA20" t="n">
-        <v>3600</v>
+        <v>1500</v>
       </c>
       <c r="AB20" t="n">
-        <v>1080</v>
+        <v>450</v>
       </c>
       <c r="AC20" t="n">
         <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="AE20" t="n">
         <v>5000</v>
       </c>
       <c r="AF20" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI20" t="n">
         <v>0</v>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
-          <t>21,0;31,5394;41,0</t>
+          <t>21,0;31,2140;41,0</t>
         </is>
       </c>
       <c r="AK20" t="inlineStr">
         <is>
-          <t>21,0;31,2688;41,0</t>
-        </is>
+          <t>21,0;31,1062;41,0</t>
+        </is>
+      </c>
+      <c r="AL20" t="n">
+        <v>545393.16023</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>32846</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>3123.659127940001</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>14696.9</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>33359.8</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>12861.172175646</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>642280.691533586</v>
       </c>
     </row>
     <row r="21">
@@ -8974,31 +9470,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C21" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21" t="n">
         <v>5</v>
       </c>
       <c r="G21" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H21" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I21" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9010,80 +9506,104 @@
         <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O21" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,1,7</t>
+          <t>5,3,3,3,2,2,0,0,2</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>465454.2498588201</v>
+        <v>283956.16243696</v>
       </c>
       <c r="U21" t="n">
-        <v>84018.99220848001</v>
+        <v>50924.7754268</v>
       </c>
       <c r="V21" t="n">
-        <v>57357.78270172</v>
+        <v>34302.90607864001</v>
       </c>
       <c r="W21" t="n">
-        <v>3450</v>
+        <v>1660</v>
       </c>
       <c r="X21" t="n">
-        <v>720</v>
+        <v>450</v>
       </c>
       <c r="Y21" t="n">
         <v>15000</v>
       </c>
       <c r="Z21" t="n">
-        <v>2460</v>
+        <v>1470</v>
       </c>
       <c r="AA21" t="n">
-        <v>3600</v>
+        <v>2250</v>
       </c>
       <c r="AB21" t="n">
-        <v>1080</v>
+        <v>675</v>
       </c>
       <c r="AC21" t="n">
         <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="AE21" t="n">
         <v>5000</v>
       </c>
       <c r="AF21" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="AG21" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AH21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AI21" t="n">
         <v>0</v>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
-          <t>21,0;31,7228;41,0</t>
+          <t>21,0;31,2856;41,0</t>
         </is>
       </c>
       <c r="AK21" t="inlineStr">
         <is>
-          <t>21,0;31,3603;41,0</t>
-        </is>
+          <t>21,0;31,1428;41,0</t>
+        </is>
+      </c>
+      <c r="AL21" t="n">
+        <v>648149.5872</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>49269</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>40107.23386560001</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>19028.1</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>66719.60000000001</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>17130.05176846</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>840403.5728340601</v>
       </c>
     </row>
     <row r="22">
@@ -9093,10 +9613,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C22" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -9108,16 +9628,16 @@
         <v>5</v>
       </c>
       <c r="G22" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H22" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="I22" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="J22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -9129,34 +9649,34 @@
         <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="O22" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,3,3,3,8</t>
+          <t>5,3,3,3,3,2,1,0,5</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>536196.01305</v>
+        <v>400689.4438392</v>
       </c>
       <c r="U22" t="n">
-        <v>101841.23157632</v>
+        <v>70166.5360716</v>
       </c>
       <c r="V22" t="n">
-        <v>70311.78702545</v>
+        <v>49589.36315863</v>
       </c>
       <c r="W22" t="n">
-        <v>3770</v>
+        <v>3040</v>
       </c>
       <c r="X22" t="n">
         <v>720</v>
@@ -9165,7 +9685,7 @@
         <v>15000</v>
       </c>
       <c r="Z22" t="n">
-        <v>2700</v>
+        <v>2340</v>
       </c>
       <c r="AA22" t="n">
         <v>3600</v>
@@ -9177,32 +9697,56 @@
         <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="AE22" t="n">
         <v>5000</v>
       </c>
       <c r="AF22" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="AG22" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="AH22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AI22" t="n">
         <v>0</v>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
-          <t>21,0;31,8764;41,0</t>
+          <t>21,0;31,5394;41,0</t>
         </is>
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t>21,0;31,4382;41,0</t>
-        </is>
+          <t>21,0;31,2688;41,0</t>
+        </is>
+      </c>
+      <c r="AL22" t="n">
+        <v>822778.6077350001</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>93581.36927087999</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>23382.7</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>96891.39999999999</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>32217.3538894825</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>1183120.380895363</v>
       </c>
     </row>
     <row r="23">
@@ -9212,10 +9756,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C23" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -9230,13 +9774,13 @@
         <v>30</v>
       </c>
       <c r="H23" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="I23" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="J23" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9248,10 +9792,10 @@
         <v>2</v>
       </c>
       <c r="N23" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O23" t="n">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9262,20 +9806,20 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,2,2,1,7</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>681744.0704315001</v>
+        <v>465454.2498588201</v>
       </c>
       <c r="U23" t="n">
-        <v>138517.656696</v>
+        <v>84018.99220848001</v>
       </c>
       <c r="V23" t="n">
-        <v>96674.48390935999</v>
+        <v>57357.78270172</v>
       </c>
       <c r="W23" t="n">
-        <v>4410</v>
+        <v>3450</v>
       </c>
       <c r="X23" t="n">
         <v>720</v>
@@ -9284,7 +9828,7 @@
         <v>15000</v>
       </c>
       <c r="Z23" t="n">
-        <v>3180</v>
+        <v>2460</v>
       </c>
       <c r="AA23" t="n">
         <v>3600</v>
@@ -9296,32 +9840,342 @@
         <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="AE23" t="n">
         <v>5000</v>
       </c>
       <c r="AF23" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>21,0;31,7228;41,0</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>21,0;31,3603;41,0</t>
+        </is>
+      </c>
+      <c r="AL23" t="n">
+        <v>898610.1854300001</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>149700.82369214</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>30363.65</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>153419</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>42551.437510082</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>1388914.046632222</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>15</v>
+      </c>
+      <c r="C24" t="n">
+        <v>300</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>10</v>
+      </c>
+      <c r="F24" t="n">
+        <v>5</v>
+      </c>
+      <c r="G24" t="n">
+        <v>30</v>
+      </c>
+      <c r="H24" t="n">
+        <v>55</v>
+      </c>
+      <c r="I24" t="n">
+        <v>45</v>
+      </c>
+      <c r="J24" t="n">
+        <v>8</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>103</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="n">
+        <v>15</v>
+      </c>
+      <c r="O24" t="n">
+        <v>270</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="n">
+        <v>30</v>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T24" t="n">
+        <v>536196.01305</v>
+      </c>
+      <c r="U24" t="n">
+        <v>101841.23157632</v>
+      </c>
+      <c r="V24" t="n">
+        <v>70311.78702545</v>
+      </c>
+      <c r="W24" t="n">
+        <v>3770</v>
+      </c>
+      <c r="X24" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>2700</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>3600</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>270</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>21,0;31,8764;41,0</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>21,0;31,4382;41,0</t>
+        </is>
+      </c>
+      <c r="AL24" t="n">
+        <v>1018472.859005</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>168028.23533224</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>43173.05</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>262506.2</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>51397.4919857055</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>1657846.786322945</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>16</v>
+      </c>
+      <c r="C25" t="n">
+        <v>400</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>10</v>
+      </c>
+      <c r="F25" t="n">
+        <v>5</v>
+      </c>
+      <c r="G25" t="n">
+        <v>30</v>
+      </c>
+      <c r="H25" t="n">
         <v>95</v>
       </c>
-      <c r="AG23" t="n">
+      <c r="I25" t="n">
         <v>85</v>
       </c>
-      <c r="AH23" t="n">
+      <c r="J25" t="n">
         <v>10</v>
       </c>
-      <c r="AI23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ23" t="inlineStr">
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>103</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="n">
+        <v>16</v>
+      </c>
+      <c r="O25" t="n">
+        <v>280</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="n">
+        <v>30</v>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T25" t="n">
+        <v>681744.0704315001</v>
+      </c>
+      <c r="U25" t="n">
+        <v>138517.656696</v>
+      </c>
+      <c r="V25" t="n">
+        <v>96674.48390935999</v>
+      </c>
+      <c r="W25" t="n">
+        <v>4410</v>
+      </c>
+      <c r="X25" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>3180</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>3600</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>280</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ25" t="inlineStr">
         <is>
           <t>21,0;31,12282;41,0</t>
         </is>
       </c>
-      <c r="AK23" t="inlineStr">
+      <c r="AK25" t="inlineStr">
         <is>
           <t>21,0;31,6140;41,0</t>
         </is>
+      </c>
+      <c r="AL25" t="n">
+        <v>1268043.13356</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>206551.88636278</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>68760.45</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>480680.6</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>71206.66418994</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>2209511.68411272</v>
       </c>
     </row>
   </sheetData>

--- a/opm_hero_property/heroes/103.xlsx
+++ b/opm_hero_property/heroes/103.xlsx
@@ -5107,13 +5107,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6016</v>
+        <v>5747</v>
       </c>
       <c r="C2" t="n">
-        <v>1645</v>
+        <v>1412</v>
       </c>
       <c r="D2" t="n">
-        <v>816</v>
+        <v>1098</v>
       </c>
       <c r="E2" t="n">
         <v>32</v>
@@ -5128,7 +5128,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3548</v>
+        <v>3045</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1774</v>
+        <v>1522</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -5216,17 +5216,17 @@
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>21,6016;31,1645;41,816;22,32;32,48;42,38</t>
+          <t>21,5747;31,1412;41,1098;22,32;32,48;42,38</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>21,0;31,3548;41,0;22,0;32,144;42,0</t>
+          <t>21,0;31,3045;41,0;22,0;32,144;42,0</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>21,0;31,1774;41,0;22,0;32,72;42,0</t>
+          <t>21,0;31,1522;41,0;22,0;32,72;42,0</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
@@ -5250,13 +5250,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>12109</v>
+        <v>11495</v>
       </c>
       <c r="C3" t="n">
-        <v>3154</v>
+        <v>2825</v>
       </c>
       <c r="D3" t="n">
-        <v>1753</v>
+        <v>2197</v>
       </c>
       <c r="E3" t="n">
         <v>64</v>
@@ -5271,7 +5271,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>6800</v>
+        <v>6090</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -5289,7 +5289,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>3400</v>
+        <v>3045</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -5359,17 +5359,17 @@
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>21,12109;31,3154;41,1753;22,64;32,96;42,76</t>
+          <t>21,11495;31,2825;41,2197;22,64;32,96;42,76</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>21,0;31,6800;41,0;22,0;32,288;42,0</t>
+          <t>21,0;31,6090;41,0;22,0;32,288;42,0</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>21,0;31,3400;41,0;22,0;32,144;42,0</t>
+          <t>21,0;31,3045;41,0;22,0;32,144;42,0</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
@@ -5393,13 +5393,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>18098</v>
+        <v>17242</v>
       </c>
       <c r="C4" t="n">
-        <v>4490</v>
+        <v>4237</v>
       </c>
       <c r="D4" t="n">
-        <v>2856</v>
+        <v>3295</v>
       </c>
       <c r="E4" t="n">
         <v>96</v>
@@ -5414,7 +5414,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>9680</v>
+        <v>9135</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -5432,7 +5432,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4840</v>
+        <v>4567</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -5502,17 +5502,17 @@
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>21,18098;31,4490;41,2856;22,96;32,144;42,114</t>
+          <t>21,17242;31,4237;41,3295;22,96;32,144;42,114</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>21,0;31,9680;41,0;22,0;32,432;42,0</t>
+          <t>21,0;31,9135;41,0;22,0;32,432;42,0</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>21,0;31,4840;41,0;22,0;32,216;42,0</t>
+          <t>21,0;31,4567;41,0;22,0;32,216;42,0</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
@@ -5536,13 +5536,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>24074</v>
+        <v>22990</v>
       </c>
       <c r="C5" t="n">
-        <v>5959</v>
+        <v>5650</v>
       </c>
       <c r="D5" t="n">
-        <v>3846</v>
+        <v>4394</v>
       </c>
       <c r="E5" t="n">
         <v>128</v>
@@ -5557,7 +5557,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>12848</v>
+        <v>12180</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -5575,7 +5575,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>6424</v>
+        <v>6090</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -5645,17 +5645,17 @@
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>21,24074;31,5959;41,3846;22,128;32,192;42,152</t>
+          <t>21,22990;31,5650;41,4394;22,128;32,192;42,152</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>21,0;31,12848;41,0;22,0;32,576;42,0</t>
+          <t>21,0;31,12180;41,0;22,0;32,576;42,0</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>21,0;31,6424;41,0;22,0;32,288;42,0</t>
+          <t>21,0;31,6090;41,0;22,0;32,288;42,0</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
@@ -5679,13 +5679,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>30028</v>
+        <v>28738</v>
       </c>
       <c r="C6" t="n">
-        <v>7417</v>
+        <v>7062</v>
       </c>
       <c r="D6" t="n">
-        <v>4855</v>
+        <v>5493</v>
       </c>
       <c r="E6" t="n">
         <v>160</v>
@@ -5700,7 +5700,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>15991</v>
+        <v>15226</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -5718,7 +5718,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>7995</v>
+        <v>7613</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -5788,17 +5788,17 @@
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>21,30028;31,7417;41,4855;22,160;32,240;42,191</t>
+          <t>21,28738;31,7062;41,5493;22,160;32,240;42,191</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>21,0;31,15991;41,0;22,0;32,720;42,0</t>
+          <t>21,0;31,15226;41,0;22,0;32,720;42,0</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>21,0;31,7995;41,0;22,0;32,360;42,0</t>
+          <t>21,0;31,7613;41,0;22,0;32,360;42,0</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
@@ -5822,13 +5822,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>35011</v>
+        <v>34485</v>
       </c>
       <c r="C7" t="n">
-        <v>8633</v>
+        <v>8475</v>
       </c>
       <c r="D7" t="n">
-        <v>6298</v>
+        <v>6591</v>
       </c>
       <c r="E7" t="n">
         <v>192</v>
@@ -5843,7 +5843,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>18613</v>
+        <v>18271</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -5861,7 +5861,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>9306</v>
+        <v>9135</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -5931,17 +5931,17 @@
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>21,35011;31,8633;41,6298;22,192;32,288;42,229</t>
+          <t>21,34485;31,8475;41,6591;22,192;32,288;42,229</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>21,0;31,18613;41,0;22,0;32,864;42,0</t>
+          <t>21,0;31,18271;41,0;22,0;32,864;42,0</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>21,0;31,9306;41,0;22,0;32,432;42,0</t>
+          <t>21,0;31,9135;41,0;22,0;32,432;42,0</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
@@ -5965,13 +5965,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>39982</v>
+        <v>40233</v>
       </c>
       <c r="C8" t="n">
-        <v>9842</v>
+        <v>9887</v>
       </c>
       <c r="D8" t="n">
-        <v>7750</v>
+        <v>7690</v>
       </c>
       <c r="E8" t="n">
         <v>224</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>21219</v>
+        <v>21316</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -6004,7 +6004,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>10609</v>
+        <v>10658</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -6074,17 +6074,17 @@
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>21,39982;31,9842;41,7750;22,224;32,336;42,267</t>
+          <t>21,40233;31,9887;41,7690;22,224;32,336;42,267</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>21,0;31,21219;41,0;22,0;32,1008;42,0</t>
+          <t>21,0;31,21316;41,0;22,0;32,1008;42,0</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>21,0;31,10609;41,0;22,0;32,504;42,0</t>
+          <t>21,0;31,10658;41,0;22,0;32,504;42,0</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
@@ -6108,13 +6108,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>45333</v>
+        <v>45980</v>
       </c>
       <c r="C9" t="n">
-        <v>11141</v>
+        <v>11300</v>
       </c>
       <c r="D9" t="n">
-        <v>9038</v>
+        <v>8788</v>
       </c>
       <c r="E9" t="n">
         <v>252</v>
@@ -6129,7 +6129,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>24018</v>
+        <v>24361</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -6147,7 +6147,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>12009</v>
+        <v>12180</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -6217,17 +6217,17 @@
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>21,45333;31,11141;41,9038;22,252;32,378;42,301</t>
+          <t>21,45980;31,11300;41,8788;22,252;32,378;42,301</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>21,0;31,24018;41,0;22,0;32,1134;42,0</t>
+          <t>21,0;31,24361;41,0;22,0;32,1134;42,0</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>21,0;31,12009;41,0;22,0;32,565;42,0</t>
+          <t>21,0;31,12180;41,0;22,0;32,565;42,0</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
@@ -6251,13 +6251,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>51454</v>
+        <v>51728</v>
       </c>
       <c r="C10" t="n">
-        <v>12645</v>
+        <v>12712</v>
       </c>
       <c r="D10" t="n">
-        <v>9955</v>
+        <v>9887</v>
       </c>
       <c r="E10" t="n">
         <v>268</v>
@@ -6272,7 +6272,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>27262</v>
+        <v>27406</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -6290,7 +6290,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>13631</v>
+        <v>13703</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -6360,17 +6360,17 @@
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>21,51454;31,12645;41,9955;22,268;32,402;42,320</t>
+          <t>21,51728;31,12712;41,9887;22,268;32,402;42,320</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>21,0;31,27262;41,0;22,0;32,1206;42,0</t>
+          <t>21,0;31,27406;41,0;22,0;32,1206;42,0</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>21,0;31,13631;41,0;22,0;32,601;42,0</t>
+          <t>21,0;31,13703;41,0;22,0;32,601;42,0</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
@@ -7530,13 +7530,13 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>61635.2089248</v>
+        <v>61366.2089248</v>
       </c>
       <c r="U7" t="n">
-        <v>11621.47248</v>
+        <v>11388.47248</v>
       </c>
       <c r="V7" t="n">
-        <v>6632.3692392</v>
+        <v>6914.3692392</v>
       </c>
       <c r="W7" t="n">
         <v>1080</v>
@@ -7579,12 +7579,12 @@
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>21,0;31,3649;41,0</t>
+          <t>21,0;31,3146;41,0</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>21,0;31,1824;41,0</t>
+          <t>21,0;31,1572;41,0</t>
         </is>
       </c>
       <c r="AL7" t="n">
@@ -7606,10 +7606,10 @@
         <v>0</v>
       </c>
       <c r="AR7" t="n">
-        <v>22513.2426622</v>
+        <v>22258.0426622</v>
       </c>
       <c r="AS7" t="n">
-        <v>185114.9921622</v>
+        <v>184859.7921622</v>
       </c>
     </row>
     <row r="8">
@@ -7673,13 +7673,13 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>68125.99274760002</v>
+        <v>67511.99274760002</v>
       </c>
       <c r="U8" t="n">
-        <v>13220.46576</v>
+        <v>12891.46576</v>
       </c>
       <c r="V8" t="n">
-        <v>7586.2544784</v>
+        <v>8030.2544784</v>
       </c>
       <c r="W8" t="n">
         <v>1080</v>
@@ -7722,12 +7722,12 @@
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>21,0;31,7002;41,0</t>
+          <t>21,0;31,6292;41,0</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>21,0;31,3501;41,0</t>
+          <t>21,0;31,3146;41,0</t>
         </is>
       </c>
       <c r="AL8" t="n">
@@ -7749,10 +7749,10 @@
         <v>0</v>
       </c>
       <c r="AR8" t="n">
-        <v>44860.8353244</v>
+        <v>44529.7353244</v>
       </c>
       <c r="AS8" t="n">
-        <v>208123.6697424</v>
+        <v>207792.5697424001</v>
       </c>
     </row>
     <row r="9">
@@ -7951,13 +7951,13 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>243184.05269296</v>
+        <v>242915.05269296</v>
       </c>
       <c r="U10" t="n">
-        <v>41748.3313792</v>
+        <v>41515.3313792</v>
       </c>
       <c r="V10" t="n">
-        <v>29522.69593506</v>
+        <v>29804.69593506</v>
       </c>
       <c r="W10" t="n">
         <v>2540</v>
@@ -8000,12 +8000,12 @@
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>21,0;31,3971;41,0</t>
+          <t>21,0;31,3468;41,0</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>21,0;31,1985;41,0</t>
+          <t>21,0;31,1733;41,0</t>
         </is>
       </c>
       <c r="AL10" t="n">
@@ -8027,10 +8027,10 @@
         <v>0</v>
       </c>
       <c r="AR10" t="n">
-        <v>24118.363764635</v>
+        <v>23863.163764635</v>
       </c>
       <c r="AS10" t="n">
-        <v>713321.040836035</v>
+        <v>713065.8408360349</v>
       </c>
     </row>
     <row r="11">
@@ -8094,13 +8094,13 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>281911.9497064</v>
+        <v>280621.9497064</v>
       </c>
       <c r="U11" t="n">
-        <v>50434.853568</v>
+        <v>50079.853568</v>
       </c>
       <c r="V11" t="n">
-        <v>33924.45585517</v>
+        <v>34562.45585517</v>
       </c>
       <c r="W11" t="n">
         <v>2790</v>
@@ -8143,12 +8143,12 @@
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>21,0;31,18106;41,0</t>
+          <t>21,0;31,17341;41,0</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>21,0;31,9052;41,0</t>
+          <t>21,0;31,8670;41,0</t>
         </is>
       </c>
       <c r="AL11" t="n">
@@ -8170,10 +8170,10 @@
         <v>0</v>
       </c>
       <c r="AR11" t="n">
-        <v>119434.5019574275</v>
+        <v>119363.5019574275</v>
       </c>
       <c r="AS11" t="n">
-        <v>837708.5604928274</v>
+        <v>837637.5604928274</v>
       </c>
     </row>
     <row r="12">
@@ -8237,13 +8237,13 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>294352.9254424</v>
+        <v>293062.9254424</v>
       </c>
       <c r="U12" t="n">
-        <v>52785.274688</v>
+        <v>52430.274688</v>
       </c>
       <c r="V12" t="n">
-        <v>33924.45585517</v>
+        <v>34562.45585517</v>
       </c>
       <c r="W12" t="n">
         <v>3040</v>
@@ -8286,12 +8286,12 @@
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>21,0;31,18106;41,0</t>
+          <t>21,0;31,17341;41,0</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>21,0;31,9052;41,0</t>
+          <t>21,0;31,8670;41,0</t>
         </is>
       </c>
       <c r="AL12" t="n">
@@ -8313,10 +8313,10 @@
         <v>0</v>
       </c>
       <c r="AR12" t="n">
-        <v>119434.5019574275</v>
+        <v>119363.5019574275</v>
       </c>
       <c r="AS12" t="n">
-        <v>866779.9419568275</v>
+        <v>866708.9419568275</v>
       </c>
     </row>
     <row r="13">
@@ -8523,13 +8523,13 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>306793.9011784</v>
+        <v>305503.9011784</v>
       </c>
       <c r="U14" t="n">
-        <v>55135.695808</v>
+        <v>54780.695808</v>
       </c>
       <c r="V14" t="n">
-        <v>33924.45585517</v>
+        <v>34562.45585517</v>
       </c>
       <c r="W14" t="n">
         <v>3210</v>
@@ -8572,12 +8572,12 @@
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>21,0;31,18106;41,0</t>
+          <t>21,0;31,17341;41,0</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>21,0;31,9052;41,0</t>
+          <t>21,0;31,8670;41,0</t>
         </is>
       </c>
       <c r="AL14" t="n">
@@ -8599,10 +8599,10 @@
         <v>0</v>
       </c>
       <c r="AR14" t="n">
-        <v>119434.5019574275</v>
+        <v>119363.5019574275</v>
       </c>
       <c r="AS14" t="n">
-        <v>895668.3234208274</v>
+        <v>895597.3234208274</v>
       </c>
     </row>
     <row r="15">
@@ -8666,13 +8666,13 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>450431.20828412</v>
+        <v>449905.20828412</v>
       </c>
       <c r="U15" t="n">
-        <v>80547.94296831999</v>
+        <v>80389.94296831999</v>
       </c>
       <c r="V15" t="n">
-        <v>56141.87850876</v>
+        <v>56434.87850876</v>
       </c>
       <c r="W15" t="n">
         <v>3370</v>
@@ -8715,12 +8715,12 @@
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>21,0;31,22405;41,0</t>
+          <t>21,0;31,22063;41,0</t>
         </is>
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>21,0;31,11202;41,0</t>
+          <t>21,0;31,11031;41,0</t>
         </is>
       </c>
       <c r="AL15" t="n">
@@ -8742,10 +8742,10 @@
         <v>0</v>
       </c>
       <c r="AR15" t="n">
-        <v>149878.704373818</v>
+        <v>149947.254373818</v>
       </c>
       <c r="AS15" t="n">
-        <v>1342766.316190898</v>
+        <v>1342834.866190898</v>
       </c>
     </row>
     <row r="16">
@@ -8809,13 +8809,13 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>456255.01581244</v>
+        <v>456506.01581244</v>
       </c>
       <c r="U16" t="n">
-        <v>81967.63072383999</v>
+        <v>82012.63072383999</v>
       </c>
       <c r="V16" t="n">
-        <v>57745.30670148</v>
+        <v>57685.30670148</v>
       </c>
       <c r="W16" t="n">
         <v>3450</v>
@@ -8858,12 +8858,12 @@
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>21,0;31,25643;41,0</t>
+          <t>21,0;31,25740;41,0</t>
         </is>
       </c>
       <c r="AK16" t="inlineStr">
         <is>
-          <t>21,0;31,12821;41,0</t>
+          <t>21,0;31,12870;41,0</t>
         </is>
       </c>
       <c r="AL16" t="n">
@@ -8885,10 +8885,10 @@
         <v>0</v>
       </c>
       <c r="AR16" t="n">
-        <v>174718.069523366</v>
+        <v>174934.569523366</v>
       </c>
       <c r="AS16" t="n">
-        <v>1367788.681340446</v>
+        <v>1368005.181340446</v>
       </c>
     </row>
     <row r="17">
@@ -8952,13 +8952,13 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1081136.5608205</v>
+        <v>1081783.5608205</v>
       </c>
       <c r="U17" t="n">
-        <v>193892.94432768</v>
+        <v>194051.94432768</v>
       </c>
       <c r="V17" t="n">
-        <v>154237.06075</v>
+        <v>153987.06075</v>
       </c>
       <c r="W17" t="n">
         <v>3770</v>
@@ -9001,12 +9001,12 @@
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
-          <t>21,0;31,35018;41,0</t>
+          <t>21,0;31,35361;41,0</t>
         </is>
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>21,0;31,17489;41,0</t>
+          <t>21,0;31,17660;41,0</t>
         </is>
       </c>
       <c r="AL17" t="n">
@@ -9028,10 +9028,10 @@
         <v>0</v>
       </c>
       <c r="AR17" t="n">
-        <v>231739.979182972</v>
+        <v>232046.579182972</v>
       </c>
       <c r="AS17" t="n">
-        <v>3320514.475993992</v>
+        <v>3320821.075993991</v>
       </c>
     </row>
     <row r="18">

--- a/opm_hero_property/heroes/103.xlsx
+++ b/opm_hero_property/heroes/103.xlsx
@@ -6543,7 +6543,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS25"/>
+  <dimension ref="A1:AW25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6739,40 +6739,60 @@
       </c>
       <c r="AL1" t="inlineStr">
         <is>
+          <t>job_contact</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>attr_addition</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>pvp_addition</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
           <t>基础战力</t>
         </is>
       </c>
-      <c r="AM1" t="inlineStr">
+      <c r="AP1" t="inlineStr">
         <is>
           <t>装备战力</t>
         </is>
       </c>
-      <c r="AN1" t="inlineStr">
+      <c r="AQ1" t="inlineStr">
         <is>
           <t>天赋战力</t>
         </is>
       </c>
-      <c r="AO1" t="inlineStr">
+      <c r="AR1" t="inlineStr">
         <is>
           <t>研究所战力</t>
         </is>
       </c>
-      <c r="AP1" t="inlineStr">
+      <c r="AS1" t="inlineStr">
         <is>
           <t>职阶战力</t>
         </is>
       </c>
-      <c r="AQ1" t="inlineStr">
+      <c r="AT1" t="inlineStr">
         <is>
           <t>机械核心战力</t>
         </is>
       </c>
-      <c r="AR1" t="inlineStr">
+      <c r="AU1" t="inlineStr">
         <is>
           <t>限制器战力</t>
         </is>
       </c>
-      <c r="AS1" t="inlineStr">
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t>收集战力</t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
         <is>
           <t>总战力</t>
         </is>
@@ -6812,7 +6832,7 @@
         <v>10</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L2" t="n">
         <v>103</v>
@@ -6839,13 +6859,13 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>5441471.991847</v>
+        <v>6321214.734295</v>
       </c>
       <c r="U2" t="n">
-        <v>948004.088408</v>
+        <v>1092139.427224</v>
       </c>
       <c r="V2" t="n">
-        <v>733629.09852312</v>
+        <v>874401.2942671201</v>
       </c>
       <c r="W2" t="n">
         <v>4410</v>
@@ -6884,7 +6904,7 @@
         <v>10</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
@@ -6897,28 +6917,36 @@
         </is>
       </c>
       <c r="AL2" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="n">
         <v>11183008.82258</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AP2" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AQ2" t="n">
         <v>1824361.79866444</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AR2" t="n">
         <v>481003.7</v>
       </c>
-      <c r="AP2" t="n">
-        <v>2007105.4</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR2" t="n">
+      <c r="AS2" t="n">
+        <v>2901680.1058064</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1789142</v>
+      </c>
+      <c r="AU2" t="n">
         <v>607436.3471257</v>
       </c>
-      <c r="AS2" t="n">
-        <v>16217185.01837014</v>
+      <c r="AV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>18900901.72417654</v>
       </c>
     </row>
     <row r="3">
@@ -6955,7 +6983,7 @@
         <v>10</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L3" t="n">
         <v>103</v>
@@ -6982,13 +7010,13 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>681744.0704315001</v>
+        <v>780817.7175275001</v>
       </c>
       <c r="U3" t="n">
-        <v>138517.656696</v>
+        <v>154749.364088</v>
       </c>
       <c r="V3" t="n">
-        <v>96674.48390935999</v>
+        <v>112858.07914136</v>
       </c>
       <c r="W3" t="n">
         <v>4410</v>
@@ -7027,7 +7055,7 @@
         <v>10</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
@@ -7040,28 +7068,36 @@
         </is>
       </c>
       <c r="AL3" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="n">
         <v>1268043.13356</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AP3" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AQ3" t="n">
         <v>206551.88636278</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AR3" t="n">
         <v>68760.45</v>
       </c>
-      <c r="AP3" t="n">
-        <v>480680.6</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" t="n">
+      <c r="AS3" t="n">
+        <v>582058.0506847999</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>202750.65</v>
+      </c>
+      <c r="AU3" t="n">
         <v>71206.66418994</v>
       </c>
-      <c r="AS3" t="n">
-        <v>2209511.68411272</v>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>2513639.78479752</v>
       </c>
     </row>
     <row r="4">
@@ -7098,7 +7134,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
         <v>103</v>
@@ -7125,13 +7161,13 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>7391.0628</v>
+        <v>7854.0628</v>
       </c>
       <c r="U4" t="n">
-        <v>1536.7857</v>
+        <v>1611.7857</v>
       </c>
       <c r="V4" t="n">
-        <v>590.7718</v>
+        <v>664.7718</v>
       </c>
       <c r="W4" t="n">
         <v>562</v>
@@ -7170,25 +7206,21 @@
         <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="n">
         <v>18655.17198</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AP4" t="n">
         <v>4549.950000000001</v>
       </c>
-      <c r="AN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ4" t="n">
         <v>0</v>
       </c>
@@ -7196,7 +7228,19 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>23205.12198</v>
+        <v>0</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>1406</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>24611.12198</v>
       </c>
     </row>
     <row r="5">
@@ -7233,7 +7277,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
         <v>103</v>
@@ -7260,13 +7304,13 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>19715.0741</v>
+        <v>33334.0741</v>
       </c>
       <c r="U5" t="n">
-        <v>3826.5978</v>
+        <v>6057.5978</v>
       </c>
       <c r="V5" t="n">
-        <v>1817.799</v>
+        <v>3996.799</v>
       </c>
       <c r="W5" t="n">
         <v>673</v>
@@ -7305,25 +7349,21 @@
         <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="n">
         <v>47465.04317</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AP5" t="n">
         <v>11988.35</v>
       </c>
-      <c r="AN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ5" t="n">
         <v>0</v>
       </c>
@@ -7331,7 +7371,19 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>59453.39317</v>
+        <v>0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>41542.15</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>100995.54317</v>
       </c>
     </row>
     <row r="6">
@@ -7368,7 +7420,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L6" t="n">
         <v>103</v>
@@ -7395,13 +7447,13 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>55494.414</v>
+        <v>113880.414</v>
       </c>
       <c r="U6" t="n">
-        <v>9942.725</v>
+        <v>19507.725</v>
       </c>
       <c r="V6" t="n">
-        <v>5799.484</v>
+        <v>15141.484</v>
       </c>
       <c r="W6" t="n">
         <v>1000</v>
@@ -7440,33 +7492,41 @@
         <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="n">
         <v>113885.4495</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AP6" t="n">
         <v>32846</v>
       </c>
-      <c r="AN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO6" t="n">
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AS6" t="n">
         <v>9526.799999999999</v>
       </c>
-      <c r="AQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>162418.7495</v>
+      <c r="AT6" t="n">
+        <v>178101</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>340519.7495</v>
       </c>
     </row>
     <row r="7">
@@ -7503,7 +7563,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L7" t="n">
         <v>103</v>
@@ -7530,13 +7590,13 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>61366.2089248</v>
+        <v>119752.2089248</v>
       </c>
       <c r="U7" t="n">
-        <v>11388.47248</v>
+        <v>20953.47248</v>
       </c>
       <c r="V7" t="n">
-        <v>6914.3692392</v>
+        <v>16256.3692392</v>
       </c>
       <c r="W7" t="n">
         <v>1080</v>
@@ -7575,7 +7635,7 @@
         <v>1</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
@@ -7588,28 +7648,36 @@
         </is>
       </c>
       <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="n">
         <v>113885.4495</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AP7" t="n">
         <v>32846</v>
       </c>
-      <c r="AN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO7" t="n">
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AS7" t="n">
         <v>9709.799999999999</v>
       </c>
-      <c r="AQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR7" t="n">
+      <c r="AT7" t="n">
+        <v>178101</v>
+      </c>
+      <c r="AU7" t="n">
         <v>22258.0426622</v>
       </c>
-      <c r="AS7" t="n">
-        <v>184859.7921622</v>
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>362960.7921622</v>
       </c>
     </row>
     <row r="8">
@@ -7646,7 +7714,7 @@
         <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L8" t="n">
         <v>103</v>
@@ -7673,13 +7741,13 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>67511.99274760002</v>
+        <v>125897.9927476</v>
       </c>
       <c r="U8" t="n">
-        <v>12891.46576</v>
+        <v>22456.46576</v>
       </c>
       <c r="V8" t="n">
-        <v>8030.2544784</v>
+        <v>17372.2544784</v>
       </c>
       <c r="W8" t="n">
         <v>1080</v>
@@ -7718,7 +7786,7 @@
         <v>2</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
@@ -7731,28 +7799,36 @@
         </is>
       </c>
       <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="n">
         <v>113885.4495</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AP8" t="n">
         <v>32846</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AQ8" t="n">
         <v>661.0849180000001</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AR8" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AS8" t="n">
         <v>9709.799999999999</v>
       </c>
-      <c r="AQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR8" t="n">
+      <c r="AT8" t="n">
+        <v>178101</v>
+      </c>
+      <c r="AU8" t="n">
         <v>44529.7353244</v>
       </c>
-      <c r="AS8" t="n">
-        <v>207792.5697424001</v>
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>385893.5697424</v>
       </c>
     </row>
     <row r="9">
@@ -7789,7 +7865,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L9" t="n">
         <v>103</v>
@@ -7816,31 +7892,31 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>235355.2248</v>
+        <v>410728.507048</v>
       </c>
       <c r="U9" t="n">
-        <v>39727.264</v>
+        <v>67378.06664</v>
       </c>
       <c r="V9" t="n">
-        <v>28616.5987</v>
+        <v>54799.696687</v>
       </c>
       <c r="W9" t="n">
-        <v>2540</v>
+        <v>2550</v>
       </c>
       <c r="X9" t="n">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="Y9" t="n">
         <v>15000</v>
       </c>
       <c r="Z9" t="n">
-        <v>2340</v>
+        <v>2350</v>
       </c>
       <c r="AA9" t="n">
-        <v>3600</v>
+        <v>3610</v>
       </c>
       <c r="AB9" t="n">
-        <v>1080</v>
+        <v>1120</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -7861,33 +7937,41 @@
         <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="n">
         <v>517608.388925</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AP9" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" t="n">
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP9" t="n">
-        <v>39338.4</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>0</v>
-      </c>
       <c r="AS9" t="n">
-        <v>686336.7889249999</v>
+        <v>44506.23388925</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>417321.2</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>94347.60000000005</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>1203173.42281425</v>
       </c>
     </row>
     <row r="10">
@@ -7924,7 +8008,7 @@
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L10" t="n">
         <v>103</v>
@@ -7951,31 +8035,31 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>242915.05269296</v>
+        <v>475414.4849698973</v>
       </c>
       <c r="U10" t="n">
-        <v>41515.3313792</v>
+        <v>78377.68284389119</v>
       </c>
       <c r="V10" t="n">
-        <v>29804.69593506</v>
+        <v>62492.77421265708</v>
       </c>
       <c r="W10" t="n">
-        <v>2540</v>
+        <v>2550</v>
       </c>
       <c r="X10" t="n">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="Y10" t="n">
         <v>15000</v>
       </c>
       <c r="Z10" t="n">
-        <v>2340</v>
+        <v>2350</v>
       </c>
       <c r="AA10" t="n">
-        <v>3600</v>
+        <v>3610</v>
       </c>
       <c r="AB10" t="n">
-        <v>1080</v>
+        <v>1120</v>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
@@ -7996,7 +8080,7 @@
         <v>1</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
@@ -8009,28 +8093,40 @@
         </is>
       </c>
       <c r="AL10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO10" t="n">
         <v>517608.388925</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AP10" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="AQ10" t="n">
         <v>2865.8881464</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AR10" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP10" t="n">
-        <v>39338.4</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR10" t="n">
+      <c r="AS10" t="n">
+        <v>44506.23388925</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>417321.2</v>
+      </c>
+      <c r="AU10" t="n">
         <v>23863.163764635</v>
       </c>
-      <c r="AS10" t="n">
-        <v>713065.8408360349</v>
+      <c r="AV10" t="n">
+        <v>252437.0735902397</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>1387991.948315525</v>
       </c>
     </row>
     <row r="11">
@@ -8067,7 +8163,7 @@
         <v>5</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L11" t="n">
         <v>103</v>
@@ -8094,31 +8190,31 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>280621.9497064</v>
+        <v>577974.8261295792</v>
       </c>
       <c r="U11" t="n">
-        <v>50079.853568</v>
+        <v>95961.21583148801</v>
       </c>
       <c r="V11" t="n">
-        <v>34562.45585517</v>
+        <v>74462.17381132906</v>
       </c>
       <c r="W11" t="n">
-        <v>2790</v>
+        <v>2800</v>
       </c>
       <c r="X11" t="n">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="Y11" t="n">
         <v>15000</v>
       </c>
       <c r="Z11" t="n">
-        <v>2340</v>
+        <v>2350</v>
       </c>
       <c r="AA11" t="n">
-        <v>3600</v>
+        <v>3610</v>
       </c>
       <c r="AB11" t="n">
-        <v>1080</v>
+        <v>1120</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -8139,7 +8235,7 @@
         <v>5</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
@@ -8152,28 +8248,40 @@
         </is>
       </c>
       <c r="AL11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO11" t="n">
         <v>517608.388925</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="AP11" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN11" t="n">
+      <c r="AQ11" t="n">
         <v>31937.2696104</v>
       </c>
-      <c r="AO11" t="n">
+      <c r="AR11" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP11" t="n">
-        <v>39338.4</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR11" t="n">
+      <c r="AS11" t="n">
+        <v>44506.23388925</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>417321.2</v>
+      </c>
+      <c r="AU11" t="n">
         <v>119363.5019574275</v>
       </c>
-      <c r="AS11" t="n">
-        <v>837637.5604928274</v>
+      <c r="AV11" t="n">
+        <v>420988.6203999111</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>1681115.214781988</v>
       </c>
     </row>
     <row r="12">
@@ -8210,7 +8318,7 @@
         <v>5</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L12" t="n">
         <v>103</v>
@@ -8237,31 +8345,31 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>293062.9254424</v>
+        <v>673014.8240518984</v>
       </c>
       <c r="U12" t="n">
-        <v>52430.274688</v>
+        <v>107753.355951888</v>
       </c>
       <c r="V12" t="n">
-        <v>34562.45585517</v>
+        <v>85337.25110354114</v>
       </c>
       <c r="W12" t="n">
-        <v>3040</v>
+        <v>3060</v>
       </c>
       <c r="X12" t="n">
-        <v>720</v>
+        <v>740</v>
       </c>
       <c r="Y12" t="n">
         <v>15000</v>
       </c>
       <c r="Z12" t="n">
-        <v>2340</v>
+        <v>2360</v>
       </c>
       <c r="AA12" t="n">
-        <v>3600</v>
+        <v>3620</v>
       </c>
       <c r="AB12" t="n">
-        <v>1080</v>
+        <v>1160</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
@@ -8282,7 +8390,7 @@
         <v>5</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
@@ -8295,28 +8403,40 @@
         </is>
       </c>
       <c r="AL12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO12" t="n">
         <v>517608.388925</v>
       </c>
-      <c r="AM12" t="n">
+      <c r="AP12" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN12" t="n">
+      <c r="AQ12" t="n">
         <v>61008.6510744</v>
       </c>
-      <c r="AO12" t="n">
+      <c r="AR12" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP12" t="n">
-        <v>39338.4</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR12" t="n">
+      <c r="AS12" t="n">
+        <v>44506.23388925</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>417321.2</v>
+      </c>
+      <c r="AU12" t="n">
         <v>119363.5019574275</v>
       </c>
-      <c r="AS12" t="n">
-        <v>866708.9419568275</v>
+      <c r="AV12" t="n">
+        <v>631387.1981192096</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>1920585.173965287</v>
       </c>
     </row>
     <row r="13">
@@ -8353,7 +8473,7 @@
         <v>10</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L13" t="n">
         <v>103</v>
@@ -8380,31 +8500,31 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>336374.6398759999</v>
+        <v>813308.1004886039</v>
       </c>
       <c r="U13" t="n">
-        <v>62372.54055999999</v>
+        <v>130752.6734072</v>
       </c>
       <c r="V13" t="n">
-        <v>40394.50597658</v>
+        <v>102267.7193300504</v>
       </c>
       <c r="W13" t="n">
-        <v>3290</v>
+        <v>3340</v>
       </c>
       <c r="X13" t="n">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="Y13" t="n">
         <v>15000</v>
       </c>
       <c r="Z13" t="n">
-        <v>2340</v>
+        <v>2390</v>
       </c>
       <c r="AA13" t="n">
-        <v>3600</v>
+        <v>3650</v>
       </c>
       <c r="AB13" t="n">
-        <v>1080</v>
+        <v>1280</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
@@ -8425,7 +8545,7 @@
         <v>10</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
@@ -8438,28 +8558,40 @@
         </is>
       </c>
       <c r="AL13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO13" t="n">
         <v>517608.388925</v>
       </c>
-      <c r="AM13" t="n">
+      <c r="AP13" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN13" t="n">
+      <c r="AQ13" t="n">
         <v>90080.0325384</v>
       </c>
-      <c r="AO13" t="n">
+      <c r="AR13" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP13" t="n">
-        <v>39338.4</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR13" t="n">
+      <c r="AS13" t="n">
+        <v>44506.23388925</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>417321.2</v>
+      </c>
+      <c r="AU13" t="n">
         <v>236152.257641935</v>
       </c>
-      <c r="AS13" t="n">
-        <v>1012569.079105335</v>
+      <c r="AV13" t="n">
+        <v>882638.3201514886</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>2317696.433146073</v>
       </c>
     </row>
     <row r="14">
@@ -8496,7 +8628,7 @@
         <v>5</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L14" t="n">
         <v>103</v>
@@ -8523,31 +8655,31 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>305503.9011784</v>
+        <v>913576.3762308672</v>
       </c>
       <c r="U14" t="n">
-        <v>54780.695808</v>
+        <v>137846.270410752</v>
       </c>
       <c r="V14" t="n">
-        <v>34562.45585517</v>
+        <v>106587.7031343821</v>
       </c>
       <c r="W14" t="n">
-        <v>3210</v>
+        <v>3260</v>
       </c>
       <c r="X14" t="n">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="Y14" t="n">
         <v>15000</v>
       </c>
       <c r="Z14" t="n">
-        <v>2280</v>
+        <v>2330</v>
       </c>
       <c r="AA14" t="n">
-        <v>3600</v>
+        <v>3650</v>
       </c>
       <c r="AB14" t="n">
-        <v>1080</v>
+        <v>1280</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
@@ -8568,7 +8700,7 @@
         <v>5</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
@@ -8581,28 +8713,40 @@
         </is>
       </c>
       <c r="AL14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO14" t="n">
         <v>517608.388925</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AP14" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AQ14" t="n">
         <v>90080.0325384</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AR14" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP14" t="n">
-        <v>39155.4</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR14" t="n">
+      <c r="AS14" t="n">
+        <v>44323.23388925</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>417321.2</v>
+      </c>
+      <c r="AU14" t="n">
         <v>119363.5019574275</v>
       </c>
-      <c r="AS14" t="n">
-        <v>895597.3234208274</v>
+      <c r="AV14" t="n">
+        <v>1173481.077777676</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>2491567.435087753</v>
       </c>
     </row>
     <row r="15">
@@ -8639,7 +8783,7 @@
         <v>6</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L15" t="n">
         <v>103</v>
@@ -8666,31 +8810,31 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>449905.20828412</v>
+        <v>1451261.756315573</v>
       </c>
       <c r="U15" t="n">
-        <v>80389.94296831999</v>
+        <v>228865.3052194624</v>
       </c>
       <c r="V15" t="n">
-        <v>56434.87850876</v>
+        <v>180769.4943636207</v>
       </c>
       <c r="W15" t="n">
-        <v>3370</v>
+        <v>3470</v>
       </c>
       <c r="X15" t="n">
-        <v>720</v>
+        <v>820</v>
       </c>
       <c r="Y15" t="n">
         <v>15000</v>
       </c>
       <c r="Z15" t="n">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="AA15" t="n">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="AB15" t="n">
-        <v>1080</v>
+        <v>1480</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
@@ -8711,7 +8855,7 @@
         <v>6</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
@@ -8724,28 +8868,40 @@
         </is>
       </c>
       <c r="AL15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO15" t="n">
         <v>799325.76646</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AP15" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AQ15" t="n">
         <v>134178.69535708</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AR15" t="n">
         <v>33220.2</v>
       </c>
-      <c r="AP15" t="n">
-        <v>111894</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR15" t="n">
+      <c r="AS15" t="n">
+        <v>127864.0153292</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>763573.8500000001</v>
+      </c>
+      <c r="AU15" t="n">
         <v>149947.254373818</v>
       </c>
-      <c r="AS15" t="n">
-        <v>1342834.866190898</v>
+      <c r="AV15" t="n">
+        <v>1962416.723400585</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>4084795.454920683</v>
       </c>
     </row>
     <row r="16">
@@ -8782,7 +8938,7 @@
         <v>7</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L16" t="n">
         <v>103</v>
@@ -8809,31 +8965,31 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>456506.01581244</v>
+        <v>1485598.095573442</v>
       </c>
       <c r="U16" t="n">
-        <v>82012.63072383999</v>
+        <v>234831.7490598183</v>
       </c>
       <c r="V16" t="n">
-        <v>57685.30670148</v>
+        <v>185375.0877236593</v>
       </c>
       <c r="W16" t="n">
-        <v>3450</v>
+        <v>3650</v>
       </c>
       <c r="X16" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y16" t="n">
         <v>15000</v>
       </c>
       <c r="Z16" t="n">
-        <v>2460</v>
+        <v>2660</v>
       </c>
       <c r="AA16" t="n">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="AB16" t="n">
-        <v>1080</v>
+        <v>1880</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
@@ -8854,7 +9010,7 @@
         <v>7</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
@@ -8867,28 +9023,40 @@
         </is>
       </c>
       <c r="AL16" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO16" t="n">
         <v>799325.76646</v>
       </c>
-      <c r="AM16" t="n">
+      <c r="AP16" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN16" t="n">
+      <c r="AQ16" t="n">
         <v>134178.69535708</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="AR16" t="n">
         <v>33220.2</v>
       </c>
-      <c r="AP16" t="n">
-        <v>112077</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR16" t="n">
+      <c r="AS16" t="n">
+        <v>128047.0153292</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>763573.8500000001</v>
+      </c>
+      <c r="AU16" t="n">
         <v>174934.569523366</v>
       </c>
-      <c r="AS16" t="n">
-        <v>1368005.181340446</v>
+      <c r="AV16" t="n">
+        <v>2040616.371827583</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>4188165.418497229</v>
       </c>
     </row>
     <row r="17">
@@ -8925,7 +9093,7 @@
         <v>8</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L17" t="n">
         <v>103</v>
@@ -8952,31 +9120,31 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1081783.5608205</v>
+        <v>2689018.064842776</v>
       </c>
       <c r="U17" t="n">
-        <v>194051.94432768</v>
+        <v>426047.322593321</v>
       </c>
       <c r="V17" t="n">
-        <v>153987.06075</v>
+        <v>357160.770724</v>
       </c>
       <c r="W17" t="n">
-        <v>3770</v>
+        <v>3970</v>
       </c>
       <c r="X17" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y17" t="n">
         <v>15000</v>
       </c>
       <c r="Z17" t="n">
-        <v>2700</v>
+        <v>2900</v>
       </c>
       <c r="AA17" t="n">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="AB17" t="n">
-        <v>1080</v>
+        <v>1880</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
@@ -8997,7 +9165,7 @@
         <v>8</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
@@ -9010,28 +9178,40 @@
         </is>
       </c>
       <c r="AL17" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO17" t="n">
         <v>1838295.73074</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="AP17" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="AQ17" t="n">
         <v>295497.26607102</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AR17" t="n">
         <v>155697.55</v>
       </c>
-      <c r="AP17" t="n">
-        <v>685015</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR17" t="n">
+      <c r="AS17" t="n">
+        <v>758513.8292296</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>1220016.85</v>
+      </c>
+      <c r="AU17" t="n">
         <v>232046.579182972</v>
       </c>
-      <c r="AS17" t="n">
-        <v>3320821.075993991</v>
+      <c r="AV17" t="n">
+        <v>3085135.767176099</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>7699472.522399691</v>
       </c>
     </row>
     <row r="18">
@@ -9068,7 +9248,7 @@
         <v>10</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L18" t="n">
         <v>103</v>
@@ -9095,31 +9275,31 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>5441471.991847</v>
+        <v>9517735.50859374</v>
       </c>
       <c r="U18" t="n">
-        <v>948004.088408</v>
+        <v>1489555.479636432</v>
       </c>
       <c r="V18" t="n">
-        <v>733629.09852312</v>
+        <v>1200742.39099064</v>
       </c>
       <c r="W18" t="n">
-        <v>4410</v>
+        <v>4610</v>
       </c>
       <c r="X18" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y18" t="n">
         <v>15000</v>
       </c>
       <c r="Z18" t="n">
-        <v>3180</v>
+        <v>3380</v>
       </c>
       <c r="AA18" t="n">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="AB18" t="n">
-        <v>1080</v>
+        <v>1880</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
@@ -9140,7 +9320,7 @@
         <v>10</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
@@ -9153,28 +9333,40 @@
         </is>
       </c>
       <c r="AL18" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM18" t="inlineStr"/>
+      <c r="AN18" t="inlineStr">
+        <is>
+          <t>1,1,3000;2,1,3000;3,1,3000;4,1,3000;1,2,3000;2,2,3000;3,2,3000;4,2,3000;5,1,3000;5,2,3000</t>
+        </is>
+      </c>
+      <c r="AO18" t="n">
         <v>11183008.82258</v>
       </c>
-      <c r="AM18" t="n">
+      <c r="AP18" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN18" t="n">
+      <c r="AQ18" t="n">
         <v>1824361.79866444</v>
       </c>
-      <c r="AO18" t="n">
+      <c r="AR18" t="n">
         <v>481003.7</v>
       </c>
-      <c r="AP18" t="n">
-        <v>2007105.4</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR18" t="n">
+      <c r="AS18" t="n">
+        <v>2901680.1058064</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>1789142</v>
+      </c>
+      <c r="AU18" t="n">
         <v>607436.3471257</v>
       </c>
-      <c r="AS18" t="n">
-        <v>16217185.01837014</v>
+      <c r="AV18" t="n">
+        <v>7817552.842104759</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>26718454.5662813</v>
       </c>
     </row>
     <row r="19">
@@ -9211,7 +9403,7 @@
         <v>10</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L19" t="n">
         <v>103</v>
@@ -9238,31 +9430,31 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>8883181.503525902</v>
+        <v>16325852.37771915</v>
       </c>
       <c r="U19" t="n">
-        <v>1541062.9005168</v>
+        <v>2652669.892721971</v>
       </c>
       <c r="V19" t="n">
-        <v>1187330.78932312</v>
+        <v>2134883.909396334</v>
       </c>
       <c r="W19" t="n">
-        <v>5450</v>
+        <v>5650</v>
       </c>
       <c r="X19" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y19" t="n">
         <v>15000</v>
       </c>
       <c r="Z19" t="n">
-        <v>3960</v>
+        <v>4160</v>
       </c>
       <c r="AA19" t="n">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="AB19" t="n">
-        <v>1080</v>
+        <v>1880</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
@@ -9283,7 +9475,7 @@
         <v>10</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
@@ -9296,28 +9488,40 @@
         </is>
       </c>
       <c r="AL19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AM19" t="inlineStr"/>
+      <c r="AN19" t="inlineStr">
+        <is>
+          <t>1,1,5000;2,1,5000;3,1,5000;4,1,5000;1,2,5000;2,2,5000;3,2,5000;4,2,5000;5,1,5000;5,2,5000</t>
+        </is>
+      </c>
+      <c r="AO19" t="n">
         <v>18142566.50102</v>
       </c>
-      <c r="AM19" t="n">
+      <c r="AP19" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN19" t="n">
+      <c r="AQ19" t="n">
         <v>2965840.05755406</v>
       </c>
-      <c r="AO19" t="n">
+      <c r="AR19" t="n">
         <v>1061573.2</v>
       </c>
-      <c r="AP19" t="n">
-        <v>3470479</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR19" t="n">
+      <c r="AS19" t="n">
+        <v>6191740.225152999</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>1789142</v>
+      </c>
+      <c r="AU19" t="n">
         <v>607436.3471257</v>
       </c>
-      <c r="AS19" t="n">
-        <v>26362164.05569977</v>
+      <c r="AV19" t="n">
+        <v>16053186.3356769</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>46925753.61652967</v>
       </c>
     </row>
     <row r="20">
@@ -9354,7 +9558,7 @@
         <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L20" t="n">
         <v>103</v>
@@ -9381,13 +9585,13 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>215613.8513983</v>
+        <v>222188.8513983</v>
       </c>
       <c r="U20" t="n">
-        <v>39604.91990634</v>
+        <v>40681.91990634</v>
       </c>
       <c r="V20" t="n">
-        <v>25780.41613592</v>
+        <v>26854.41613592</v>
       </c>
       <c r="W20" t="n">
         <v>1080</v>
@@ -9426,7 +9630,7 @@
         <v>1</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
@@ -9439,28 +9643,36 @@
         </is>
       </c>
       <c r="AL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="inlineStr"/>
+      <c r="AN20" t="inlineStr"/>
+      <c r="AO20" t="n">
         <v>545393.16023</v>
       </c>
-      <c r="AM20" t="n">
+      <c r="AP20" t="n">
         <v>32846</v>
       </c>
-      <c r="AN20" t="n">
+      <c r="AQ20" t="n">
         <v>3123.659127940001</v>
       </c>
-      <c r="AO20" t="n">
+      <c r="AR20" t="n">
         <v>14696.9</v>
       </c>
-      <c r="AP20" t="n">
+      <c r="AS20" t="n">
         <v>33359.8</v>
       </c>
-      <c r="AQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR20" t="n">
+      <c r="AT20" t="n">
+        <v>20181.8</v>
+      </c>
+      <c r="AU20" t="n">
         <v>12861.172175646</v>
       </c>
-      <c r="AS20" t="n">
-        <v>642280.691533586</v>
+      <c r="AV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>662462.4915335861</v>
       </c>
     </row>
     <row r="21">
@@ -9497,7 +9709,7 @@
         <v>2</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L21" t="n">
         <v>103</v>
@@ -9524,13 +9736,13 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>283956.16243696</v>
+        <v>297538.61193296</v>
       </c>
       <c r="U21" t="n">
-        <v>50924.7754268</v>
+        <v>53171.6372968</v>
       </c>
       <c r="V21" t="n">
-        <v>34302.90607864001</v>
+        <v>36459.91468264</v>
       </c>
       <c r="W21" t="n">
         <v>1660</v>
@@ -9569,7 +9781,7 @@
         <v>2</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
@@ -9582,28 +9794,36 @@
         </is>
       </c>
       <c r="AL21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM21" t="inlineStr"/>
+      <c r="AN21" t="inlineStr"/>
+      <c r="AO21" t="n">
         <v>648149.5872</v>
       </c>
-      <c r="AM21" t="n">
+      <c r="AP21" t="n">
         <v>49269</v>
       </c>
-      <c r="AN21" t="n">
+      <c r="AQ21" t="n">
         <v>40107.23386560001</v>
       </c>
-      <c r="AO21" t="n">
+      <c r="AR21" t="n">
         <v>19028.1</v>
       </c>
-      <c r="AP21" t="n">
-        <v>66719.60000000001</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR21" t="n">
+      <c r="AS21" t="n">
+        <v>73192.84587200001</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>35015.35</v>
+      </c>
+      <c r="AU21" t="n">
         <v>17130.05176846</v>
       </c>
-      <c r="AS21" t="n">
-        <v>840403.5728340601</v>
+      <c r="AV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>881892.16870606</v>
       </c>
     </row>
     <row r="22">
@@ -9640,7 +9860,7 @@
         <v>5</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L22" t="n">
         <v>103</v>
@@ -9667,31 +9887,31 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>400689.4438392</v>
+        <v>527945.3677430744</v>
       </c>
       <c r="U22" t="n">
-        <v>70166.5360716</v>
+        <v>88719.17444456358</v>
       </c>
       <c r="V22" t="n">
-        <v>49589.36315863</v>
+        <v>64973.98033243093</v>
       </c>
       <c r="W22" t="n">
-        <v>3040</v>
+        <v>3090</v>
       </c>
       <c r="X22" t="n">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="Y22" t="n">
         <v>15000</v>
       </c>
       <c r="Z22" t="n">
-        <v>2340</v>
+        <v>2390</v>
       </c>
       <c r="AA22" t="n">
-        <v>3600</v>
+        <v>3650</v>
       </c>
       <c r="AB22" t="n">
-        <v>1080</v>
+        <v>1280</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
@@ -9712,7 +9932,7 @@
         <v>5</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
@@ -9725,28 +9945,40 @@
         </is>
       </c>
       <c r="AL22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM22" t="inlineStr"/>
+      <c r="AN22" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO22" t="n">
         <v>822778.6077350001</v>
       </c>
-      <c r="AM22" t="n">
+      <c r="AP22" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN22" t="n">
+      <c r="AQ22" t="n">
         <v>93581.36927087999</v>
       </c>
-      <c r="AO22" t="n">
+      <c r="AR22" t="n">
         <v>23382.7</v>
       </c>
-      <c r="AP22" t="n">
-        <v>96891.39999999999</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR22" t="n">
+      <c r="AS22" t="n">
+        <v>105110.93607735</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>47288.60000000001</v>
+      </c>
+      <c r="AU22" t="n">
         <v>32217.3538894825</v>
       </c>
-      <c r="AS22" t="n">
-        <v>1183120.380895363</v>
+      <c r="AV22" t="n">
+        <v>288822.5413493285</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>1527451.058322041</v>
       </c>
     </row>
     <row r="23">
@@ -9783,7 +10015,7 @@
         <v>7</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L23" t="n">
         <v>103</v>
@@ -9810,31 +10042,31 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>465454.2498588201</v>
+        <v>683248.0580240916</v>
       </c>
       <c r="U23" t="n">
-        <v>84018.99220848001</v>
+        <v>119642.4435892642</v>
       </c>
       <c r="V23" t="n">
-        <v>57357.78270172</v>
+        <v>84098.37683205395</v>
       </c>
       <c r="W23" t="n">
-        <v>3450</v>
+        <v>3650</v>
       </c>
       <c r="X23" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y23" t="n">
         <v>15000</v>
       </c>
       <c r="Z23" t="n">
-        <v>2460</v>
+        <v>2660</v>
       </c>
       <c r="AA23" t="n">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="AB23" t="n">
-        <v>1080</v>
+        <v>1880</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
@@ -9855,7 +10087,7 @@
         <v>7</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
@@ -9868,28 +10100,40 @@
         </is>
       </c>
       <c r="AL23" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM23" t="inlineStr"/>
+      <c r="AN23" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO23" t="n">
         <v>898610.1854300001</v>
       </c>
-      <c r="AM23" t="n">
+      <c r="AP23" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN23" t="n">
+      <c r="AQ23" t="n">
         <v>149700.82369214</v>
       </c>
-      <c r="AO23" t="n">
+      <c r="AR23" t="n">
         <v>30363.65</v>
       </c>
-      <c r="AP23" t="n">
-        <v>153419</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR23" t="n">
+      <c r="AS23" t="n">
+        <v>171374.7037086</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>86525.2</v>
+      </c>
+      <c r="AU23" t="n">
         <v>42551.437510082</v>
       </c>
-      <c r="AS23" t="n">
-        <v>1388914.046632222</v>
+      <c r="AV23" t="n">
+        <v>515273.1352335026</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>2008668.085574325</v>
       </c>
     </row>
     <row r="24">
@@ -9926,7 +10170,7 @@
         <v>8</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L24" t="n">
         <v>103</v>
@@ -9953,31 +10197,31 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>536196.01305</v>
+        <v>858202.8156573001</v>
       </c>
       <c r="U24" t="n">
-        <v>101841.23157632</v>
+        <v>155263.1868032743</v>
       </c>
       <c r="V24" t="n">
-        <v>70311.78702545</v>
+        <v>111299.2255239274</v>
       </c>
       <c r="W24" t="n">
-        <v>3770</v>
+        <v>3970</v>
       </c>
       <c r="X24" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y24" t="n">
         <v>15000</v>
       </c>
       <c r="Z24" t="n">
-        <v>2700</v>
+        <v>2900</v>
       </c>
       <c r="AA24" t="n">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="AB24" t="n">
-        <v>1080</v>
+        <v>1880</v>
       </c>
       <c r="AC24" t="n">
         <v>0</v>
@@ -9998,7 +10242,7 @@
         <v>8</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
@@ -10011,28 +10255,40 @@
         </is>
       </c>
       <c r="AL24" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM24" t="inlineStr"/>
+      <c r="AN24" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO24" t="n">
         <v>1018472.859005</v>
       </c>
-      <c r="AM24" t="n">
+      <c r="AP24" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN24" t="n">
+      <c r="AQ24" t="n">
         <v>168028.23533224</v>
       </c>
-      <c r="AO24" t="n">
+      <c r="AR24" t="n">
         <v>43173.05</v>
       </c>
-      <c r="AP24" t="n">
-        <v>262506.2</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR24" t="n">
+      <c r="AS24" t="n">
+        <v>303212.1143602</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>138255.85</v>
+      </c>
+      <c r="AU24" t="n">
         <v>51397.4919857055</v>
       </c>
-      <c r="AS24" t="n">
-        <v>1657846.786322945</v>
+      <c r="AV24" t="n">
+        <v>749734.3006793291</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>2586542.851362475</v>
       </c>
     </row>
     <row r="25">
@@ -10069,7 +10325,7 @@
         <v>10</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L25" t="n">
         <v>103</v>
@@ -10096,31 +10352,31 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>681744.0704315001</v>
+        <v>1465503.99568092</v>
       </c>
       <c r="U25" t="n">
-        <v>138517.656696</v>
+        <v>265863.084932568</v>
       </c>
       <c r="V25" t="n">
-        <v>96674.48390935999</v>
+        <v>195512.1842009825</v>
       </c>
       <c r="W25" t="n">
-        <v>4410</v>
+        <v>4610</v>
       </c>
       <c r="X25" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y25" t="n">
         <v>15000</v>
       </c>
       <c r="Z25" t="n">
-        <v>3180</v>
+        <v>3380</v>
       </c>
       <c r="AA25" t="n">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="AB25" t="n">
-        <v>1080</v>
+        <v>1880</v>
       </c>
       <c r="AC25" t="n">
         <v>0</v>
@@ -10141,7 +10397,7 @@
         <v>10</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
@@ -10154,28 +10410,40 @@
         </is>
       </c>
       <c r="AL25" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM25" t="inlineStr"/>
+      <c r="AN25" t="inlineStr">
+        <is>
+          <t>1,1,3000;2,1,3000;3,1,3000;4,1,3000;1,2,3000;2,2,3000;3,2,3000;4,2,3000;5,1,3000;5,2,3000</t>
+        </is>
+      </c>
+      <c r="AO25" t="n">
         <v>1268043.13356</v>
       </c>
-      <c r="AM25" t="n">
+      <c r="AP25" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN25" t="n">
+      <c r="AQ25" t="n">
         <v>206551.88636278</v>
       </c>
-      <c r="AO25" t="n">
+      <c r="AR25" t="n">
         <v>68760.45</v>
       </c>
-      <c r="AP25" t="n">
-        <v>480680.6</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR25" t="n">
+      <c r="AS25" t="n">
+        <v>582058.0506847999</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>202750.65</v>
+      </c>
+      <c r="AU25" t="n">
         <v>71206.66418994</v>
       </c>
-      <c r="AS25" t="n">
-        <v>2209511.68411272</v>
+      <c r="AV25" t="n">
+        <v>1929032.056073769</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>4442671.840871289</v>
       </c>
     </row>
   </sheetData>
